--- a/xlsx/icao_wxxm_3.0.0_Semantic_Correspondence_Report_v1.xlsx
+++ b/xlsx/icao_wxxm_3.0.0_Semantic_Correspondence_Report_v1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scott\work\semantic_correspondence\IWXXM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paco/Documents/GitHub/connectedbyairm2021/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCCB31F-B08B-4546-9646-D1042BDDF46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BAEE86-20B4-1B44-95B5-EF1C08B71E02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="3" r:id="rId1"/>
-    <sheet name="icao_wxxm" sheetId="1" r:id="rId2"/>
+    <sheet name="semantic correspondences" sheetId="1" r:id="rId2"/>
     <sheet name="enums" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">icao_wxxm!$A$1:$K$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'semantic correspondences'!$A$1:$K$288</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -3716,9 +3716,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3746,6 +3743,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4075,45 +4075,45 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="103.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="27.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="103.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>706</v>
       </c>
@@ -4121,13 +4121,13 @@
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>707</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>708</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>710</v>
       </c>
@@ -4143,10 +4143,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>712</v>
       </c>
@@ -4154,27 +4154,27 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>714</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="1" t="s">
         <v>715</v>
@@ -4182,7 +4182,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
     </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>716</v>
       </c>
@@ -4190,7 +4190,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="22"/>
     </row>
-    <row r="21" spans="1:4" ht="390" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24" t="s">
         <v>718</v>
@@ -4198,75 +4198,75 @@
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="24"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="24"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="24"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="24"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
-    <row r="26" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="21"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="24"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
-    <row r="28" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="24"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="24"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
-    <row r="30" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="26"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="21"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
-    <row r="32" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="24"/>
     </row>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C16:C17"/>
@@ -4285,22 +4285,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>475</v>
       </c>
@@ -4316,26 +4316,26 @@
       <c r="E1" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>728</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4346,17 +4346,17 @@
         <v>1</v>
       </c>
       <c r="F2" s="22"/>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4372,16 +4372,16 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4397,16 +4397,16 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-    </row>
-    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4422,16 +4422,16 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>889</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4447,16 +4447,16 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>890</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4466,16 +4466,16 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>891</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -4491,16 +4491,16 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>892</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4513,16 +4513,16 @@
       <c r="D9" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>891</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4533,17 +4533,17 @@
         <v>20</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4559,16 +4559,16 @@
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4584,16 +4584,16 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4603,18 +4603,18 @@
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="37" t="s">
         <v>894</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="38" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="37" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4624,16 +4624,16 @@
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="36" t="s">
         <v>895</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="208" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4649,16 +4649,16 @@
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>896</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4674,16 +4674,16 @@
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>897</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -4702,13 +4702,13 @@
       <c r="F17" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -4725,13 +4725,13 @@
         <v>36</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4741,16 +4741,16 @@
       <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="36" t="s">
         <v>898</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -4760,16 +4760,16 @@
       <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="36" t="s">
         <v>939</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4780,13 +4780,13 @@
         <v>42</v>
       </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -4802,16 +4802,16 @@
       <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>899</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4827,16 +4827,16 @@
       <c r="E23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>900</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -4852,16 +4852,16 @@
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="36" t="s">
         <v>901</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4877,16 +4877,16 @@
       <c r="E25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="36" t="s">
         <v>902</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4902,16 +4902,16 @@
       <c r="E26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="36" t="s">
         <v>903</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4928,15 +4928,15 @@
         <v>59</v>
       </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -4955,13 +4955,13 @@
       <c r="F28" s="22" t="s">
         <v>904</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -4978,13 +4978,13 @@
         <v>63</v>
       </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-    </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+    </row>
+    <row r="30" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4994,16 +4994,16 @@
       <c r="E30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="36" t="s">
         <v>905</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-    </row>
-    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+    </row>
+    <row r="31" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -5019,16 +5019,16 @@
       <c r="E31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="36" t="s">
         <v>906</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-    </row>
-    <row r="32" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:11" ht="144" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -5044,16 +5044,16 @@
       <c r="E32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="F32" s="36" t="s">
         <v>907</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-    </row>
-    <row r="33" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -5069,16 +5069,16 @@
       <c r="E33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F33" s="36" t="s">
         <v>897</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" ht="192" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -5094,16 +5094,16 @@
       <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="36" t="s">
         <v>908</v>
       </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-    </row>
-    <row r="35" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -5113,16 +5113,16 @@
       <c r="E35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="36" t="s">
         <v>909</v>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-    </row>
-    <row r="36" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -5138,16 +5138,16 @@
       <c r="E36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-    </row>
-    <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -5163,16 +5163,16 @@
       <c r="E37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F37" s="36" t="s">
         <v>911</v>
       </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -5188,16 +5188,16 @@
       <c r="E38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="37" t="s">
+      <c r="F38" s="36" t="s">
         <v>912</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-    </row>
-    <row r="39" spans="1:11" ht="405" x14ac:dyDescent="0.25">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" ht="365" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -5207,16 +5207,16 @@
       <c r="E39" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="F39" s="37" t="s">
+      <c r="F39" s="36" t="s">
         <v>913</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-    </row>
-    <row r="40" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -5232,16 +5232,16 @@
       <c r="E40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F40" s="37" t="s">
+      <c r="F40" s="36" t="s">
         <v>914</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-    </row>
-    <row r="41" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -5257,16 +5257,16 @@
       <c r="E41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F41" s="36" t="s">
         <v>915</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-    </row>
-    <row r="42" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+    </row>
+    <row r="42" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -5283,13 +5283,13 @@
         <v>91</v>
       </c>
       <c r="F42" s="22"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-    </row>
-    <row r="43" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+    </row>
+    <row r="43" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -5305,16 +5305,16 @@
       <c r="E43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F43" s="36" t="s">
         <v>916</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-    </row>
-    <row r="44" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="44" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -5331,13 +5331,13 @@
         <v>95</v>
       </c>
       <c r="F44" s="22"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-    </row>
-    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+    </row>
+    <row r="45" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -5353,16 +5353,16 @@
       <c r="E45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="36" t="s">
         <v>917</v>
       </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-    </row>
-    <row r="46" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+    </row>
+    <row r="46" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -5378,16 +5378,16 @@
       <c r="E46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="36" t="s">
         <v>918</v>
       </c>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-    </row>
-    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+    </row>
+    <row r="47" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -5403,16 +5403,16 @@
       <c r="E47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="36" t="s">
         <v>919</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-    </row>
-    <row r="48" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -5422,18 +5422,18 @@
       <c r="E48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="38" t="s">
         <v>920</v>
       </c>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="38" t="s">
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="37" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -5449,16 +5449,16 @@
       <c r="E49" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="37" t="s">
         <v>919</v>
       </c>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-    </row>
-    <row r="50" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+    </row>
+    <row r="50" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -5471,13 +5471,13 @@
       <c r="F50" s="22" t="s">
         <v>921</v>
       </c>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-    </row>
-    <row r="51" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+    </row>
+    <row r="51" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -5493,16 +5493,16 @@
       <c r="E51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="37" t="s">
         <v>914</v>
       </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-    </row>
-    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+    </row>
+    <row r="52" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -5518,16 +5518,16 @@
       <c r="E52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="37" t="s">
         <v>915</v>
       </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-    </row>
-    <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+    </row>
+    <row r="53" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -5544,13 +5544,13 @@
         <v>91</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-    </row>
-    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+    </row>
+    <row r="54" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -5566,16 +5566,16 @@
       <c r="E54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+    </row>
+    <row r="55" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>104</v>
       </c>
@@ -5592,13 +5592,13 @@
         <v>95</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-    </row>
-    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+    </row>
+    <row r="56" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -5608,16 +5608,16 @@
       <c r="E56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="F56" s="36" t="s">
         <v>923</v>
       </c>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-    </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+    </row>
+    <row r="57" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5634,13 +5634,13 @@
         <v>114</v>
       </c>
       <c r="F57" s="22"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5657,13 +5657,13 @@
         <v>115</v>
       </c>
       <c r="F58" s="22"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-    </row>
-    <row r="59" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+    </row>
+    <row r="59" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -5674,13 +5674,13 @@
         <v>117</v>
       </c>
       <c r="F59" s="22"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-    </row>
-    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+    </row>
+    <row r="60" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -5691,13 +5691,13 @@
         <v>119</v>
       </c>
       <c r="F60" s="22"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-    </row>
-    <row r="61" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+    </row>
+    <row r="61" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -5710,13 +5710,13 @@
       <c r="F61" s="22" t="s">
         <v>725</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -5733,13 +5733,13 @@
         <v>124</v>
       </c>
       <c r="F62" s="22"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-    </row>
-    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+    </row>
+    <row r="63" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -5756,13 +5756,13 @@
         <v>127</v>
       </c>
       <c r="F63" s="22"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-    </row>
-    <row r="64" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+    </row>
+    <row r="64" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -5779,13 +5779,13 @@
         <v>129</v>
       </c>
       <c r="F64" s="22"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-    </row>
-    <row r="65" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -5802,13 +5802,13 @@
         <v>132</v>
       </c>
       <c r="F65" s="22"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-    </row>
-    <row r="66" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -5825,13 +5825,13 @@
         <v>135</v>
       </c>
       <c r="F66" s="22"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-    </row>
-    <row r="67" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+    </row>
+    <row r="67" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -5848,13 +5848,13 @@
         <v>138</v>
       </c>
       <c r="F67" s="22"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-    </row>
-    <row r="68" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+    </row>
+    <row r="68" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -5871,13 +5871,13 @@
         <v>141</v>
       </c>
       <c r="F68" s="22"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-    </row>
-    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+    </row>
+    <row r="69" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -5894,13 +5894,13 @@
         <v>143</v>
       </c>
       <c r="F69" s="22"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+    </row>
+    <row r="70" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -5917,13 +5917,13 @@
         <v>145</v>
       </c>
       <c r="F70" s="22"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-    </row>
-    <row r="71" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+    </row>
+    <row r="71" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -5940,13 +5940,13 @@
         <v>148</v>
       </c>
       <c r="F71" s="22"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-    </row>
-    <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+    </row>
+    <row r="72" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -5963,13 +5963,13 @@
         <v>150</v>
       </c>
       <c r="F72" s="22"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-    </row>
-    <row r="73" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+    </row>
+    <row r="73" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -5980,13 +5980,13 @@
         <v>152</v>
       </c>
       <c r="F73" s="22"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-    </row>
-    <row r="74" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+    </row>
+    <row r="74" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -6003,13 +6003,13 @@
         <v>155</v>
       </c>
       <c r="F74" s="22"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-    </row>
-    <row r="75" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+    </row>
+    <row r="75" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -6026,13 +6026,13 @@
         <v>157</v>
       </c>
       <c r="F75" s="22"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-    </row>
-    <row r="76" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+    </row>
+    <row r="76" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6049,13 +6049,13 @@
         <v>159</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-    </row>
-    <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+    </row>
+    <row r="77" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>151</v>
       </c>
@@ -6072,13 +6072,13 @@
         <v>162</v>
       </c>
       <c r="F77" s="22"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-    </row>
-    <row r="78" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+    </row>
+    <row r="78" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -6095,13 +6095,13 @@
         <v>165</v>
       </c>
       <c r="F78" s="22"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-    </row>
-    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+    </row>
+    <row r="79" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -6118,13 +6118,13 @@
         <v>168</v>
       </c>
       <c r="F79" s="22"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="35"/>
-    </row>
-    <row r="80" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+    </row>
+    <row r="80" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -6141,13 +6141,13 @@
         <v>170</v>
       </c>
       <c r="F80" s="22"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-    </row>
-    <row r="81" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+    </row>
+    <row r="81" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -6164,13 +6164,13 @@
         <v>168</v>
       </c>
       <c r="F81" s="22"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-    </row>
-    <row r="82" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+    </row>
+    <row r="82" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -6187,13 +6187,13 @@
         <v>173</v>
       </c>
       <c r="F82" s="22"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-    </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+    </row>
+    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -6210,13 +6210,13 @@
         <v>176</v>
       </c>
       <c r="F83" s="22"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="35"/>
-      <c r="K83" s="35"/>
-    </row>
-    <row r="84" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+    </row>
+    <row r="84" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -6233,13 +6233,13 @@
         <v>178</v>
       </c>
       <c r="F84" s="22"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="35"/>
-    </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+    </row>
+    <row r="85" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -6256,13 +6256,13 @@
         <v>180</v>
       </c>
       <c r="F85" s="22"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-    </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+    </row>
+    <row r="86" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>151</v>
       </c>
@@ -6279,13 +6279,13 @@
         <v>182</v>
       </c>
       <c r="F86" s="22"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-    </row>
-    <row r="87" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+    </row>
+    <row r="87" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -6296,13 +6296,13 @@
         <v>183</v>
       </c>
       <c r="F87" s="22"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-    </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+    </row>
+    <row r="88" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -6319,13 +6319,13 @@
         <v>186</v>
       </c>
       <c r="F88" s="22"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-    </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+    </row>
+    <row r="89" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>147</v>
       </c>
@@ -6342,13 +6342,13 @@
         <v>189</v>
       </c>
       <c r="F89" s="22"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-    </row>
-    <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+    </row>
+    <row r="90" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>147</v>
       </c>
@@ -6365,13 +6365,13 @@
         <v>191</v>
       </c>
       <c r="F90" s="22"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
-      <c r="I90" s="35"/>
-      <c r="J90" s="35"/>
-      <c r="K90" s="35"/>
-    </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+    </row>
+    <row r="91" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>35</v>
       </c>
@@ -6382,13 +6382,13 @@
         <v>192</v>
       </c>
       <c r="F91" s="22"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-    </row>
-    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+    </row>
+    <row r="92" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>193</v>
       </c>
@@ -6399,13 +6399,13 @@
         <v>194</v>
       </c>
       <c r="F92" s="22"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="35"/>
-    </row>
-    <row r="93" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+    </row>
+    <row r="93" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>195</v>
       </c>
@@ -6415,16 +6415,16 @@
       <c r="E93" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="38" t="s">
+      <c r="F93" s="37" t="s">
         <v>924</v>
       </c>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-    </row>
-    <row r="94" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+    </row>
+    <row r="94" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -6434,16 +6434,16 @@
       <c r="E94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="38" t="s">
+      <c r="F94" s="37" t="s">
         <v>925</v>
       </c>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="35"/>
-    </row>
-    <row r="95" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+    </row>
+    <row r="95" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -6459,16 +6459,16 @@
       <c r="E95" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F95" s="38" t="s">
+      <c r="F95" s="37" t="s">
         <v>926</v>
       </c>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="35"/>
-    </row>
-    <row r="96" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+    </row>
+    <row r="96" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -6484,16 +6484,16 @@
       <c r="E96" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F96" s="38" t="s">
+      <c r="F96" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="35"/>
-    </row>
-    <row r="97" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+    </row>
+    <row r="97" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -6509,16 +6509,16 @@
       <c r="E97" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F97" s="38" t="s">
+      <c r="F97" s="37" t="s">
         <v>928</v>
       </c>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-    </row>
-    <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+    </row>
+    <row r="98" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -6529,13 +6529,13 @@
         <v>205</v>
       </c>
       <c r="F98" s="22"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-    </row>
-    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
+    </row>
+    <row r="99" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -6546,13 +6546,13 @@
         <v>206</v>
       </c>
       <c r="F99" s="22"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
+    </row>
+    <row r="100" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -6563,13 +6563,13 @@
         <v>207</v>
       </c>
       <c r="F100" s="22"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-    </row>
-    <row r="101" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="34"/>
+    </row>
+    <row r="101" spans="1:11" ht="144" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -6582,13 +6582,13 @@
       <c r="F101" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-    </row>
-    <row r="102" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+    </row>
+    <row r="102" spans="1:11" ht="240" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>211</v>
       </c>
@@ -6599,17 +6599,17 @@
         <v>212</v>
       </c>
       <c r="F102" s="22"/>
-      <c r="G102" s="35" t="s">
+      <c r="G102" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35" t="s">
+      <c r="H102" s="34"/>
+      <c r="I102" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-    </row>
-    <row r="103" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="J102" s="34"/>
+      <c r="K102" s="34"/>
+    </row>
+    <row r="103" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>211</v>
       </c>
@@ -6626,13 +6626,13 @@
         <v>213</v>
       </c>
       <c r="F103" s="22"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-    </row>
-    <row r="104" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+    </row>
+    <row r="104" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>211</v>
       </c>
@@ -6648,16 +6648,16 @@
       <c r="E104" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F104" s="36" t="s">
+      <c r="F104" s="35" t="s">
         <v>896</v>
       </c>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-    </row>
-    <row r="105" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="34"/>
+    </row>
+    <row r="105" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>211</v>
       </c>
@@ -6673,16 +6673,16 @@
       <c r="E105" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F105" s="36" t="s">
+      <c r="F105" s="35" t="s">
         <v>897</v>
       </c>
-      <c r="G105" s="35"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-    </row>
-    <row r="106" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="34"/>
+    </row>
+    <row r="106" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6698,16 +6698,16 @@
       <c r="E106" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F106" s="36" t="s">
+      <c r="F106" s="35" t="s">
         <v>929</v>
       </c>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="35"/>
-      <c r="K106" s="35"/>
-    </row>
-    <row r="107" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="34"/>
+    </row>
+    <row r="107" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>211</v>
       </c>
@@ -6723,16 +6723,16 @@
       <c r="E107" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F107" s="36" t="s">
+      <c r="F107" s="35" t="s">
         <v>930</v>
       </c>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="35"/>
-    </row>
-    <row r="108" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="34"/>
+    </row>
+    <row r="108" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -6748,16 +6748,16 @@
       <c r="E108" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F108" s="36" t="s">
+      <c r="F108" s="35" t="s">
         <v>931</v>
       </c>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
-    </row>
-    <row r="109" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="34"/>
+    </row>
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -6773,16 +6773,16 @@
       <c r="E109" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F109" s="36" t="s">
+      <c r="F109" s="35" t="s">
         <v>925</v>
       </c>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-    </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="34"/>
+    </row>
+    <row r="110" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -6799,17 +6799,17 @@
         <v>225</v>
       </c>
       <c r="F110" s="22"/>
-      <c r="G110" s="35" t="s">
+      <c r="G110" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H110" s="35"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
-      <c r="K110" s="38" t="s">
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="37" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>211</v>
       </c>
@@ -6826,17 +6826,17 @@
         <v>227</v>
       </c>
       <c r="F111" s="22"/>
-      <c r="G111" s="35" t="s">
+      <c r="G111" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H111" s="35"/>
-      <c r="I111" s="35"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="38" t="s">
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="37" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -6847,17 +6847,17 @@
         <v>229</v>
       </c>
       <c r="F112" s="22"/>
-      <c r="G112" s="35" t="s">
+      <c r="G112" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H112" s="35"/>
-      <c r="I112" s="35" t="s">
+      <c r="H112" s="34"/>
+      <c r="I112" s="34" t="s">
         <v>867</v>
       </c>
-      <c r="J112" s="35"/>
-      <c r="K112" s="35"/>
-    </row>
-    <row r="113" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+    </row>
+    <row r="113" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>228</v>
       </c>
@@ -6873,16 +6873,16 @@
       <c r="E113" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F113" s="37" t="s">
+      <c r="F113" s="36" t="s">
         <v>932</v>
       </c>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
-      <c r="I113" s="35"/>
-      <c r="J113" s="35"/>
-      <c r="K113" s="35"/>
-    </row>
-    <row r="114" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+    </row>
+    <row r="114" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>228</v>
       </c>
@@ -6898,16 +6898,16 @@
       <c r="E114" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F114" s="37" t="s">
+      <c r="F114" s="36" t="s">
         <v>933</v>
       </c>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="35"/>
-      <c r="K114" s="35"/>
-    </row>
-    <row r="115" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+    </row>
+    <row r="115" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -6923,16 +6923,16 @@
       <c r="E115" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F115" s="37" t="s">
+      <c r="F115" s="36" t="s">
         <v>934</v>
       </c>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="35"/>
-      <c r="J115" s="35"/>
-      <c r="K115" s="35"/>
-    </row>
-    <row r="116" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+    </row>
+    <row r="116" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>228</v>
       </c>
@@ -6948,16 +6948,16 @@
       <c r="E116" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F116" s="37" t="s">
+      <c r="F116" s="36" t="s">
         <v>930</v>
       </c>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="35"/>
-      <c r="J116" s="35"/>
-      <c r="K116" s="35"/>
-    </row>
-    <row r="117" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+    </row>
+    <row r="117" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>228</v>
       </c>
@@ -6974,17 +6974,17 @@
         <v>237</v>
       </c>
       <c r="F117" s="22"/>
-      <c r="G117" s="35" t="s">
+      <c r="G117" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="37" t="s">
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="36" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>228</v>
       </c>
@@ -7001,17 +7001,17 @@
         <v>239</v>
       </c>
       <c r="F118" s="22"/>
-      <c r="G118" s="35" t="s">
+      <c r="G118" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H118" s="35"/>
-      <c r="I118" s="35"/>
-      <c r="J118" s="35"/>
-      <c r="K118" s="35" t="s">
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>228</v>
       </c>
@@ -7028,17 +7028,17 @@
         <v>240</v>
       </c>
       <c r="F119" s="22"/>
-      <c r="G119" s="35" t="s">
+      <c r="G119" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H119" s="35"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="37" t="s">
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="36" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>228</v>
       </c>
@@ -7055,17 +7055,17 @@
         <v>242</v>
       </c>
       <c r="F120" s="22"/>
-      <c r="G120" s="35" t="s">
+      <c r="G120" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H120" s="35"/>
-      <c r="I120" s="35"/>
-      <c r="J120" s="35"/>
-      <c r="K120" s="37" t="s">
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
+      <c r="K120" s="36" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -7082,17 +7082,17 @@
         <v>244</v>
       </c>
       <c r="F121" s="22"/>
-      <c r="G121" s="35" t="s">
+      <c r="G121" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="37" t="s">
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="36" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>228</v>
       </c>
@@ -7109,17 +7109,17 @@
         <v>246</v>
       </c>
       <c r="F122" s="22"/>
-      <c r="G122" s="35" t="s">
+      <c r="G122" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="37" t="s">
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="36" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>228</v>
       </c>
@@ -7136,17 +7136,17 @@
         <v>248</v>
       </c>
       <c r="F123" s="22"/>
-      <c r="G123" s="35" t="s">
+      <c r="G123" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="37" t="s">
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="36" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>228</v>
       </c>
@@ -7163,17 +7163,17 @@
         <v>250</v>
       </c>
       <c r="F124" s="22"/>
-      <c r="G124" s="35" t="s">
+      <c r="G124" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="37" t="s">
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="36" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>210</v>
       </c>
@@ -7183,18 +7183,18 @@
       <c r="E125" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F125" s="37" t="s">
+      <c r="F125" s="36" t="s">
         <v>940</v>
       </c>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="35" t="s">
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="34" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>210</v>
       </c>
@@ -7211,15 +7211,15 @@
         <v>124</v>
       </c>
       <c r="F126" s="22"/>
-      <c r="G126" s="35" t="s">
+      <c r="G126" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
-      <c r="K126" s="35"/>
-    </row>
-    <row r="127" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
+      <c r="K126" s="34"/>
+    </row>
+    <row r="127" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>210</v>
       </c>
@@ -7236,13 +7236,13 @@
         <v>254</v>
       </c>
       <c r="F127" s="22"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-    </row>
-    <row r="128" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="34"/>
+    </row>
+    <row r="128" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>210</v>
       </c>
@@ -7259,13 +7259,13 @@
         <v>256</v>
       </c>
       <c r="F128" s="22"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
-      <c r="I128" s="35"/>
-      <c r="J128" s="35"/>
-      <c r="K128" s="35"/>
-    </row>
-    <row r="129" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+      <c r="K128" s="34"/>
+    </row>
+    <row r="129" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>210</v>
       </c>
@@ -7281,16 +7281,16 @@
       <c r="E129" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F129" s="37" t="s">
+      <c r="F129" s="36" t="s">
         <v>935</v>
       </c>
-      <c r="G129" s="35"/>
-      <c r="H129" s="35"/>
-      <c r="I129" s="35"/>
-      <c r="J129" s="35"/>
-      <c r="K129" s="35"/>
-    </row>
-    <row r="130" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="34"/>
+    </row>
+    <row r="130" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>210</v>
       </c>
@@ -7307,17 +7307,17 @@
         <v>261</v>
       </c>
       <c r="F130" s="22"/>
-      <c r="G130" s="35" t="s">
+      <c r="G130" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H130" s="35"/>
-      <c r="I130" s="35"/>
-      <c r="J130" s="35"/>
-      <c r="K130" s="37" t="s">
+      <c r="H130" s="34"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="36" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>210</v>
       </c>
@@ -7334,17 +7334,17 @@
         <v>263</v>
       </c>
       <c r="F131" s="22"/>
-      <c r="G131" s="35" t="s">
+      <c r="G131" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H131" s="35"/>
-      <c r="I131" s="35"/>
-      <c r="J131" s="35"/>
-      <c r="K131" s="37" t="s">
+      <c r="H131" s="34"/>
+      <c r="I131" s="34"/>
+      <c r="J131" s="34"/>
+      <c r="K131" s="36" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>260</v>
       </c>
@@ -7354,16 +7354,16 @@
       <c r="E132" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F132" s="37" t="s">
+      <c r="F132" s="36" t="s">
         <v>941</v>
       </c>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="35"/>
-    </row>
-    <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G132" s="34"/>
+      <c r="H132" s="34"/>
+      <c r="I132" s="34"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
+    </row>
+    <row r="133" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>260</v>
       </c>
@@ -7380,13 +7380,13 @@
         <v>186</v>
       </c>
       <c r="F133" s="22"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="35"/>
-      <c r="J133" s="35"/>
-      <c r="K133" s="35"/>
-    </row>
-    <row r="134" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="34"/>
+    </row>
+    <row r="134" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>260</v>
       </c>
@@ -7403,13 +7403,13 @@
         <v>266</v>
       </c>
       <c r="F134" s="22"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="35"/>
-      <c r="J134" s="35"/>
-      <c r="K134" s="35"/>
-    </row>
-    <row r="135" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G134" s="34"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="34"/>
+      <c r="J134" s="34"/>
+      <c r="K134" s="34"/>
+    </row>
+    <row r="135" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>260</v>
       </c>
@@ -7425,16 +7425,16 @@
       <c r="E135" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F135" s="37" t="s">
+      <c r="F135" s="36" t="s">
         <v>896</v>
       </c>
-      <c r="G135" s="35"/>
-      <c r="H135" s="35"/>
-      <c r="I135" s="35"/>
-      <c r="J135" s="35"/>
-      <c r="K135" s="35"/>
-    </row>
-    <row r="136" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="34"/>
+      <c r="J135" s="34"/>
+      <c r="K135" s="34"/>
+    </row>
+    <row r="136" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>260</v>
       </c>
@@ -7451,15 +7451,15 @@
         <v>32</v>
       </c>
       <c r="F136" s="22"/>
-      <c r="G136" s="35" t="s">
+      <c r="G136" s="34" t="s">
         <v>879</v>
       </c>
-      <c r="H136" s="35"/>
-      <c r="I136" s="35"/>
-      <c r="J136" s="35"/>
-      <c r="K136" s="35"/>
-    </row>
-    <row r="137" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
+      <c r="K136" s="34"/>
+    </row>
+    <row r="137" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -7475,16 +7475,16 @@
       <c r="E137" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F137" s="37" t="s">
+      <c r="F137" s="36" t="s">
         <v>929</v>
       </c>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="35"/>
-      <c r="J137" s="35"/>
-      <c r="K137" s="35"/>
-    </row>
-    <row r="138" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G137" s="34"/>
+      <c r="H137" s="34"/>
+      <c r="I137" s="34"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="34"/>
+    </row>
+    <row r="138" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>260</v>
       </c>
@@ -7500,16 +7500,16 @@
       <c r="E138" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F138" s="37" t="s">
+      <c r="F138" s="36" t="s">
         <v>930</v>
       </c>
-      <c r="G138" s="35"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="35"/>
-      <c r="J138" s="35"/>
-      <c r="K138" s="35"/>
-    </row>
-    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G138" s="34"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="34"/>
+      <c r="K138" s="34"/>
+    </row>
+    <row r="139" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>260</v>
       </c>
@@ -7526,17 +7526,17 @@
         <v>227</v>
       </c>
       <c r="F139" s="22"/>
-      <c r="G139" s="35" t="s">
+      <c r="G139" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H139" s="35"/>
-      <c r="I139" s="35"/>
-      <c r="J139" s="35"/>
-      <c r="K139" s="37" t="s">
+      <c r="H139" s="34"/>
+      <c r="I139" s="34"/>
+      <c r="J139" s="34"/>
+      <c r="K139" s="36" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>260</v>
       </c>
@@ -7553,17 +7553,17 @@
         <v>221</v>
       </c>
       <c r="F140" s="22"/>
-      <c r="G140" s="35" t="s">
+      <c r="G140" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H140" s="35"/>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="37" t="s">
+      <c r="H140" s="34"/>
+      <c r="I140" s="34"/>
+      <c r="J140" s="34"/>
+      <c r="K140" s="36" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>260</v>
       </c>
@@ -7580,17 +7580,17 @@
         <v>223</v>
       </c>
       <c r="F141" s="22"/>
-      <c r="G141" s="35" t="s">
+      <c r="G141" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H141" s="35"/>
-      <c r="I141" s="35"/>
-      <c r="J141" s="35"/>
-      <c r="K141" s="37" t="s">
+      <c r="H141" s="34"/>
+      <c r="I141" s="34"/>
+      <c r="J141" s="34"/>
+      <c r="K141" s="36" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>122</v>
       </c>
@@ -7601,13 +7601,13 @@
         <v>270</v>
       </c>
       <c r="F142" s="22"/>
-      <c r="G142" s="35"/>
-      <c r="H142" s="35"/>
-      <c r="I142" s="35"/>
-      <c r="J142" s="35"/>
-      <c r="K142" s="35"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G142" s="34"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="34"/>
+      <c r="J142" s="34"/>
+      <c r="K142" s="34"/>
+    </row>
+    <row r="143" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>122</v>
       </c>
@@ -7624,13 +7624,13 @@
         <v>273</v>
       </c>
       <c r="F143" s="22"/>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="35"/>
-      <c r="K143" s="35"/>
-    </row>
-    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="34"/>
+      <c r="J143" s="34"/>
+      <c r="K143" s="34"/>
+    </row>
+    <row r="144" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>122</v>
       </c>
@@ -7647,13 +7647,13 @@
         <v>276</v>
       </c>
       <c r="F144" s="22"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="35"/>
-      <c r="I144" s="35"/>
-      <c r="J144" s="35"/>
-      <c r="K144" s="35"/>
-    </row>
-    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G144" s="34"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="34"/>
+      <c r="J144" s="34"/>
+      <c r="K144" s="34"/>
+    </row>
+    <row r="145" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>122</v>
       </c>
@@ -7670,13 +7670,13 @@
         <v>279</v>
       </c>
       <c r="F145" s="22"/>
-      <c r="G145" s="35"/>
-      <c r="H145" s="35"/>
-      <c r="I145" s="35"/>
-      <c r="J145" s="35"/>
-      <c r="K145" s="35"/>
-    </row>
-    <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="34"/>
+      <c r="K145" s="34"/>
+    </row>
+    <row r="146" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>122</v>
       </c>
@@ -7693,13 +7693,13 @@
         <v>281</v>
       </c>
       <c r="F146" s="22"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="35"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35"/>
-    </row>
-    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="34"/>
+    </row>
+    <row r="147" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>122</v>
       </c>
@@ -7716,13 +7716,13 @@
         <v>283</v>
       </c>
       <c r="F147" s="22"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="35"/>
-      <c r="I147" s="35"/>
-      <c r="J147" s="35"/>
-      <c r="K147" s="35"/>
-    </row>
-    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G147" s="34"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="34"/>
+      <c r="K147" s="34"/>
+    </row>
+    <row r="148" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>122</v>
       </c>
@@ -7739,13 +7739,13 @@
         <v>286</v>
       </c>
       <c r="F148" s="22"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="35"/>
-      <c r="K148" s="35"/>
-    </row>
-    <row r="149" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="34"/>
+    </row>
+    <row r="149" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>122</v>
       </c>
@@ -7762,13 +7762,13 @@
         <v>288</v>
       </c>
       <c r="F149" s="22"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="35"/>
-      <c r="K149" s="35"/>
-    </row>
-    <row r="150" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G149" s="34"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="34"/>
+      <c r="K149" s="34"/>
+    </row>
+    <row r="150" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>122</v>
       </c>
@@ -7785,13 +7785,13 @@
         <v>290</v>
       </c>
       <c r="F150" s="22"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="35"/>
-      <c r="I150" s="35"/>
-      <c r="J150" s="35"/>
-      <c r="K150" s="35"/>
-    </row>
-    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G150" s="34"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="34"/>
+      <c r="J150" s="34"/>
+      <c r="K150" s="34"/>
+    </row>
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>122</v>
       </c>
@@ -7808,13 +7808,13 @@
         <v>292</v>
       </c>
       <c r="F151" s="22"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="35"/>
-      <c r="I151" s="35"/>
-      <c r="J151" s="35"/>
-      <c r="K151" s="35"/>
-    </row>
-    <row r="152" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="G151" s="34"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="34"/>
+      <c r="K151" s="34"/>
+    </row>
+    <row r="152" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>122</v>
       </c>
@@ -7831,13 +7831,13 @@
         <v>294</v>
       </c>
       <c r="F152" s="22"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="35"/>
-      <c r="I152" s="35"/>
-      <c r="J152" s="35"/>
-      <c r="K152" s="35"/>
-    </row>
-    <row r="153" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G152" s="34"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="34"/>
+      <c r="J152" s="34"/>
+      <c r="K152" s="34"/>
+    </row>
+    <row r="153" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>50</v>
       </c>
@@ -7847,16 +7847,16 @@
       <c r="E153" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F153" s="37" t="s">
+      <c r="F153" s="36" t="s">
         <v>936</v>
       </c>
-      <c r="G153" s="35"/>
-      <c r="H153" s="35"/>
-      <c r="I153" s="35"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="35"/>
-    </row>
-    <row r="154" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G153" s="34"/>
+      <c r="H153" s="34"/>
+      <c r="I153" s="34"/>
+      <c r="J153" s="34"/>
+      <c r="K153" s="34"/>
+    </row>
+    <row r="154" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>47</v>
       </c>
@@ -7866,16 +7866,16 @@
       <c r="E154" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F154" s="37" t="s">
+      <c r="F154" s="36" t="s">
         <v>900</v>
       </c>
-      <c r="G154" s="35"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="35"/>
-      <c r="J154" s="35"/>
-      <c r="K154" s="35"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="34"/>
+      <c r="J154" s="34"/>
+      <c r="K154" s="34"/>
+    </row>
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>55</v>
       </c>
@@ -7886,13 +7886,13 @@
         <v>295</v>
       </c>
       <c r="F155" s="22"/>
-      <c r="G155" s="35"/>
-      <c r="H155" s="35"/>
-      <c r="I155" s="35"/>
-      <c r="J155" s="35"/>
-      <c r="K155" s="35"/>
-    </row>
-    <row r="156" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="G155" s="34"/>
+      <c r="H155" s="34"/>
+      <c r="I155" s="34"/>
+      <c r="J155" s="34"/>
+      <c r="K155" s="34"/>
+    </row>
+    <row r="156" spans="1:11" ht="128" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>82</v>
       </c>
@@ -7902,16 +7902,16 @@
       <c r="E156" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F156" s="37" t="s">
+      <c r="F156" s="36" t="s">
         <v>937</v>
       </c>
-      <c r="G156" s="35"/>
-      <c r="H156" s="35"/>
-      <c r="I156" s="35"/>
-      <c r="J156" s="35"/>
-      <c r="K156" s="35"/>
-    </row>
-    <row r="157" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G156" s="34"/>
+      <c r="H156" s="34"/>
+      <c r="I156" s="34"/>
+      <c r="J156" s="34"/>
+      <c r="K156" s="34"/>
+    </row>
+    <row r="157" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>203</v>
       </c>
@@ -7921,18 +7921,18 @@
       <c r="E157" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F157" s="38" t="s">
+      <c r="F157" s="37" t="s">
         <v>938</v>
       </c>
-      <c r="G157" s="35"/>
-      <c r="H157" s="35"/>
-      <c r="I157" s="35"/>
-      <c r="J157" s="35"/>
-      <c r="K157" s="38" t="s">
+      <c r="G157" s="34"/>
+      <c r="H157" s="34"/>
+      <c r="I157" s="34"/>
+      <c r="J157" s="34"/>
+      <c r="K157" s="37" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="176" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>299</v>
       </c>
@@ -7945,13 +7945,13 @@
       <c r="F158" s="22" t="s">
         <v>722</v>
       </c>
-      <c r="G158" s="35"/>
-      <c r="H158" s="35"/>
-      <c r="I158" s="35"/>
-      <c r="J158" s="35"/>
-      <c r="K158" s="35"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="34"/>
+      <c r="J158" s="34"/>
+      <c r="K158" s="34"/>
+    </row>
+    <row r="159" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>299</v>
       </c>
@@ -7968,13 +7968,13 @@
         <v>124</v>
       </c>
       <c r="F159" s="22"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="35"/>
-      <c r="I159" s="35"/>
-      <c r="J159" s="35"/>
-      <c r="K159" s="35"/>
-    </row>
-    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G159" s="34"/>
+      <c r="H159" s="34"/>
+      <c r="I159" s="34"/>
+      <c r="J159" s="34"/>
+      <c r="K159" s="34"/>
+    </row>
+    <row r="160" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>299</v>
       </c>
@@ -7991,13 +7991,13 @@
         <v>301</v>
       </c>
       <c r="F160" s="22"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="35"/>
-      <c r="I160" s="35"/>
-      <c r="J160" s="35"/>
-      <c r="K160" s="35"/>
-    </row>
-    <row r="161" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G160" s="34"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="34"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="34"/>
+    </row>
+    <row r="161" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>299</v>
       </c>
@@ -8014,13 +8014,13 @@
         <v>129</v>
       </c>
       <c r="F161" s="22"/>
-      <c r="G161" s="35"/>
-      <c r="H161" s="35"/>
-      <c r="I161" s="35"/>
-      <c r="J161" s="35"/>
-      <c r="K161" s="35"/>
-    </row>
-    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G161" s="34"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="34"/>
+      <c r="J161" s="34"/>
+      <c r="K161" s="34"/>
+    </row>
+    <row r="162" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>299</v>
       </c>
@@ -8037,13 +8037,13 @@
         <v>132</v>
       </c>
       <c r="F162" s="22"/>
-      <c r="G162" s="35"/>
-      <c r="H162" s="35"/>
-      <c r="I162" s="35"/>
-      <c r="J162" s="35"/>
-      <c r="K162" s="35"/>
-    </row>
-    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G162" s="34"/>
+      <c r="H162" s="34"/>
+      <c r="I162" s="34"/>
+      <c r="J162" s="34"/>
+      <c r="K162" s="34"/>
+    </row>
+    <row r="163" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>299</v>
       </c>
@@ -8060,13 +8060,13 @@
         <v>135</v>
       </c>
       <c r="F163" s="22"/>
-      <c r="G163" s="35"/>
-      <c r="H163" s="35"/>
-      <c r="I163" s="35"/>
-      <c r="J163" s="35"/>
-      <c r="K163" s="35"/>
-    </row>
-    <row r="164" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="G163" s="34"/>
+      <c r="H163" s="34"/>
+      <c r="I163" s="34"/>
+      <c r="J163" s="34"/>
+      <c r="K163" s="34"/>
+    </row>
+    <row r="164" spans="1:11" ht="176" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>299</v>
       </c>
@@ -8083,13 +8083,13 @@
         <v>302</v>
       </c>
       <c r="F164" s="22"/>
-      <c r="G164" s="35"/>
-      <c r="H164" s="35"/>
-      <c r="I164" s="35"/>
-      <c r="J164" s="35"/>
-      <c r="K164" s="35"/>
-    </row>
-    <row r="165" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G164" s="34"/>
+      <c r="H164" s="34"/>
+      <c r="I164" s="34"/>
+      <c r="J164" s="34"/>
+      <c r="K164" s="34"/>
+    </row>
+    <row r="165" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>299</v>
       </c>
@@ -8106,13 +8106,13 @@
         <v>303</v>
       </c>
       <c r="F165" s="22"/>
-      <c r="G165" s="35"/>
-      <c r="H165" s="35"/>
-      <c r="I165" s="35"/>
-      <c r="J165" s="35"/>
-      <c r="K165" s="35"/>
-    </row>
-    <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G165" s="34"/>
+      <c r="H165" s="34"/>
+      <c r="I165" s="34"/>
+      <c r="J165" s="34"/>
+      <c r="K165" s="34"/>
+    </row>
+    <row r="166" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>299</v>
       </c>
@@ -8129,13 +8129,13 @@
         <v>304</v>
       </c>
       <c r="F166" s="22"/>
-      <c r="G166" s="35"/>
-      <c r="H166" s="35"/>
-      <c r="I166" s="35"/>
-      <c r="J166" s="35"/>
-      <c r="K166" s="35"/>
-    </row>
-    <row r="167" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G166" s="34"/>
+      <c r="H166" s="34"/>
+      <c r="I166" s="34"/>
+      <c r="J166" s="34"/>
+      <c r="K166" s="34"/>
+    </row>
+    <row r="167" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>299</v>
       </c>
@@ -8152,13 +8152,13 @@
         <v>305</v>
       </c>
       <c r="F167" s="22"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="35"/>
-      <c r="J167" s="35"/>
-      <c r="K167" s="35"/>
-    </row>
-    <row r="168" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="G167" s="34"/>
+      <c r="H167" s="34"/>
+      <c r="I167" s="34"/>
+      <c r="J167" s="34"/>
+      <c r="K167" s="34"/>
+    </row>
+    <row r="168" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>299</v>
       </c>
@@ -8175,13 +8175,13 @@
         <v>307</v>
       </c>
       <c r="F168" s="22"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="35"/>
-      <c r="I168" s="35"/>
-      <c r="J168" s="35"/>
-      <c r="K168" s="35"/>
-    </row>
-    <row r="169" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G168" s="34"/>
+      <c r="H168" s="34"/>
+      <c r="I168" s="34"/>
+      <c r="J168" s="34"/>
+      <c r="K168" s="34"/>
+    </row>
+    <row r="169" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>299</v>
       </c>
@@ -8198,13 +8198,13 @@
         <v>309</v>
       </c>
       <c r="F169" s="22"/>
-      <c r="G169" s="35"/>
-      <c r="H169" s="35"/>
-      <c r="I169" s="35"/>
-      <c r="J169" s="35"/>
-      <c r="K169" s="35"/>
-    </row>
-    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G169" s="34"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="34"/>
+      <c r="J169" s="34"/>
+      <c r="K169" s="34"/>
+    </row>
+    <row r="170" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>299</v>
       </c>
@@ -8221,13 +8221,13 @@
         <v>150</v>
       </c>
       <c r="F170" s="22"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
-      <c r="I170" s="35"/>
-      <c r="J170" s="35"/>
-      <c r="K170" s="35"/>
-    </row>
-    <row r="171" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="G170" s="34"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="34"/>
+      <c r="J170" s="34"/>
+      <c r="K170" s="34"/>
+    </row>
+    <row r="171" spans="1:11" ht="176" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>310</v>
       </c>
@@ -8238,13 +8238,13 @@
         <v>311</v>
       </c>
       <c r="F171" s="22"/>
-      <c r="G171" s="35"/>
-      <c r="H171" s="35"/>
-      <c r="I171" s="35"/>
-      <c r="J171" s="35"/>
-      <c r="K171" s="35"/>
-    </row>
-    <row r="172" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G171" s="34"/>
+      <c r="H171" s="34"/>
+      <c r="I171" s="34"/>
+      <c r="J171" s="34"/>
+      <c r="K171" s="34"/>
+    </row>
+    <row r="172" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>310</v>
       </c>
@@ -8261,13 +8261,13 @@
         <v>155</v>
       </c>
       <c r="F172" s="22"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="35"/>
-      <c r="I172" s="35"/>
-      <c r="J172" s="35"/>
-      <c r="K172" s="35"/>
-    </row>
-    <row r="173" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G172" s="34"/>
+      <c r="H172" s="34"/>
+      <c r="I172" s="34"/>
+      <c r="J172" s="34"/>
+      <c r="K172" s="34"/>
+    </row>
+    <row r="173" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>310</v>
       </c>
@@ -8284,13 +8284,13 @@
         <v>312</v>
       </c>
       <c r="F173" s="22"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
-      <c r="K173" s="35"/>
-    </row>
-    <row r="174" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G173" s="34"/>
+      <c r="H173" s="34"/>
+      <c r="I173" s="34"/>
+      <c r="J173" s="34"/>
+      <c r="K173" s="34"/>
+    </row>
+    <row r="174" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>310</v>
       </c>
@@ -8307,13 +8307,13 @@
         <v>313</v>
       </c>
       <c r="F174" s="22"/>
-      <c r="G174" s="35"/>
-      <c r="H174" s="35"/>
-      <c r="I174" s="35"/>
-      <c r="J174" s="35"/>
-      <c r="K174" s="35"/>
-    </row>
-    <row r="175" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G174" s="34"/>
+      <c r="H174" s="34"/>
+      <c r="I174" s="34"/>
+      <c r="J174" s="34"/>
+      <c r="K174" s="34"/>
+    </row>
+    <row r="175" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>310</v>
       </c>
@@ -8330,13 +8330,13 @@
         <v>315</v>
       </c>
       <c r="F175" s="22"/>
-      <c r="G175" s="35"/>
-      <c r="H175" s="35"/>
-      <c r="I175" s="35"/>
-      <c r="J175" s="35"/>
-      <c r="K175" s="35"/>
-    </row>
-    <row r="176" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G175" s="34"/>
+      <c r="H175" s="34"/>
+      <c r="I175" s="34"/>
+      <c r="J175" s="34"/>
+      <c r="K175" s="34"/>
+    </row>
+    <row r="176" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>310</v>
       </c>
@@ -8353,13 +8353,13 @@
         <v>182</v>
       </c>
       <c r="F176" s="22"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="35"/>
-      <c r="I176" s="35"/>
-      <c r="J176" s="35"/>
-      <c r="K176" s="35"/>
-    </row>
-    <row r="177" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G176" s="34"/>
+      <c r="H176" s="34"/>
+      <c r="I176" s="34"/>
+      <c r="J176" s="34"/>
+      <c r="K176" s="34"/>
+    </row>
+    <row r="177" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>316</v>
       </c>
@@ -8370,13 +8370,13 @@
         <v>317</v>
       </c>
       <c r="F177" s="22"/>
-      <c r="G177" s="35"/>
-      <c r="H177" s="35"/>
-      <c r="I177" s="35"/>
-      <c r="J177" s="35"/>
-      <c r="K177" s="35"/>
-    </row>
-    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G177" s="34"/>
+      <c r="H177" s="34"/>
+      <c r="I177" s="34"/>
+      <c r="J177" s="34"/>
+      <c r="K177" s="34"/>
+    </row>
+    <row r="178" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>316</v>
       </c>
@@ -8393,13 +8393,13 @@
         <v>186</v>
       </c>
       <c r="F178" s="22"/>
-      <c r="G178" s="35"/>
-      <c r="H178" s="35"/>
-      <c r="I178" s="35"/>
-      <c r="J178" s="35"/>
-      <c r="K178" s="35"/>
-    </row>
-    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G178" s="34"/>
+      <c r="H178" s="34"/>
+      <c r="I178" s="34"/>
+      <c r="J178" s="34"/>
+      <c r="K178" s="34"/>
+    </row>
+    <row r="179" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>316</v>
       </c>
@@ -8416,13 +8416,13 @@
         <v>189</v>
       </c>
       <c r="F179" s="22"/>
-      <c r="G179" s="35"/>
-      <c r="H179" s="35"/>
-      <c r="I179" s="35"/>
-      <c r="J179" s="35"/>
-      <c r="K179" s="35"/>
-    </row>
-    <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G179" s="34"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="34"/>
+      <c r="J179" s="34"/>
+      <c r="K179" s="34"/>
+    </row>
+    <row r="180" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>316</v>
       </c>
@@ -8439,13 +8439,13 @@
         <v>318</v>
       </c>
       <c r="F180" s="22"/>
-      <c r="G180" s="35"/>
-      <c r="H180" s="35"/>
-      <c r="I180" s="35"/>
-      <c r="J180" s="35"/>
-      <c r="K180" s="35"/>
-    </row>
-    <row r="181" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="G180" s="34"/>
+      <c r="H180" s="34"/>
+      <c r="I180" s="34"/>
+      <c r="J180" s="34"/>
+      <c r="K180" s="34"/>
+    </row>
+    <row r="181" spans="1:11" ht="160" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>319</v>
       </c>
@@ -8456,13 +8456,13 @@
         <v>320</v>
       </c>
       <c r="F181" s="22"/>
-      <c r="G181" s="35"/>
-      <c r="H181" s="35"/>
-      <c r="I181" s="35"/>
-      <c r="J181" s="35"/>
-      <c r="K181" s="35"/>
-    </row>
-    <row r="182" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G181" s="34"/>
+      <c r="H181" s="34"/>
+      <c r="I181" s="34"/>
+      <c r="J181" s="34"/>
+      <c r="K181" s="34"/>
+    </row>
+    <row r="182" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>319</v>
       </c>
@@ -8479,13 +8479,13 @@
         <v>321</v>
       </c>
       <c r="F182" s="22"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
-      <c r="I182" s="35"/>
-      <c r="J182" s="35"/>
-      <c r="K182" s="35"/>
-    </row>
-    <row r="183" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G182" s="34"/>
+      <c r="H182" s="34"/>
+      <c r="I182" s="34"/>
+      <c r="J182" s="34"/>
+      <c r="K182" s="34"/>
+    </row>
+    <row r="183" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>319</v>
       </c>
@@ -8502,13 +8502,13 @@
         <v>182</v>
       </c>
       <c r="F183" s="22"/>
-      <c r="G183" s="35"/>
-      <c r="H183" s="35"/>
-      <c r="I183" s="35"/>
-      <c r="J183" s="35"/>
-      <c r="K183" s="35"/>
-    </row>
-    <row r="184" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G183" s="34"/>
+      <c r="H183" s="34"/>
+      <c r="I183" s="34"/>
+      <c r="J183" s="34"/>
+      <c r="K183" s="34"/>
+    </row>
+    <row r="184" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>322</v>
       </c>
@@ -8519,13 +8519,13 @@
         <v>323</v>
       </c>
       <c r="F184" s="22"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="35"/>
-      <c r="I184" s="35"/>
-      <c r="J184" s="35"/>
-      <c r="K184" s="35"/>
-    </row>
-    <row r="185" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G184" s="34"/>
+      <c r="H184" s="34"/>
+      <c r="I184" s="34"/>
+      <c r="J184" s="34"/>
+      <c r="K184" s="34"/>
+    </row>
+    <row r="185" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>322</v>
       </c>
@@ -8542,13 +8542,13 @@
         <v>186</v>
       </c>
       <c r="F185" s="22"/>
-      <c r="G185" s="35"/>
-      <c r="H185" s="35"/>
-      <c r="I185" s="35"/>
-      <c r="J185" s="35"/>
-      <c r="K185" s="35"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G185" s="34"/>
+      <c r="H185" s="34"/>
+      <c r="I185" s="34"/>
+      <c r="J185" s="34"/>
+      <c r="K185" s="34"/>
+    </row>
+    <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>322</v>
       </c>
@@ -8565,13 +8565,13 @@
         <v>318</v>
       </c>
       <c r="F186" s="22"/>
-      <c r="G186" s="35"/>
-      <c r="H186" s="35"/>
-      <c r="I186" s="35"/>
-      <c r="J186" s="35"/>
-      <c r="K186" s="35"/>
-    </row>
-    <row r="187" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G186" s="34"/>
+      <c r="H186" s="34"/>
+      <c r="I186" s="34"/>
+      <c r="J186" s="34"/>
+      <c r="K186" s="34"/>
+    </row>
+    <row r="187" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>324</v>
       </c>
@@ -8582,13 +8582,13 @@
         <v>325</v>
       </c>
       <c r="F187" s="22"/>
-      <c r="G187" s="35"/>
-      <c r="H187" s="35"/>
-      <c r="I187" s="35"/>
-      <c r="J187" s="35"/>
-      <c r="K187" s="35"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G187" s="34"/>
+      <c r="H187" s="34"/>
+      <c r="I187" s="34"/>
+      <c r="J187" s="34"/>
+      <c r="K187" s="34"/>
+    </row>
+    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>324</v>
       </c>
@@ -8605,13 +8605,13 @@
         <v>124</v>
       </c>
       <c r="F188" s="22"/>
-      <c r="G188" s="35"/>
-      <c r="H188" s="35"/>
-      <c r="I188" s="35"/>
-      <c r="J188" s="35"/>
-      <c r="K188" s="35"/>
-    </row>
-    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G188" s="34"/>
+      <c r="H188" s="34"/>
+      <c r="I188" s="34"/>
+      <c r="J188" s="34"/>
+      <c r="K188" s="34"/>
+    </row>
+    <row r="189" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>324</v>
       </c>
@@ -8628,13 +8628,13 @@
         <v>327</v>
       </c>
       <c r="F189" s="22"/>
-      <c r="G189" s="35"/>
-      <c r="H189" s="35"/>
-      <c r="I189" s="35"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="35"/>
-    </row>
-    <row r="190" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="34"/>
+      <c r="J189" s="34"/>
+      <c r="K189" s="34"/>
+    </row>
+    <row r="190" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>324</v>
       </c>
@@ -8651,13 +8651,13 @@
         <v>329</v>
       </c>
       <c r="F190" s="22"/>
-      <c r="G190" s="35"/>
-      <c r="H190" s="35"/>
-      <c r="I190" s="35"/>
-      <c r="J190" s="35"/>
-      <c r="K190" s="35"/>
-    </row>
-    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G190" s="34"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
+    </row>
+    <row r="191" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -8674,13 +8674,13 @@
         <v>331</v>
       </c>
       <c r="F191" s="22"/>
-      <c r="G191" s="35"/>
-      <c r="H191" s="35"/>
-      <c r="I191" s="35"/>
-      <c r="J191" s="35"/>
-      <c r="K191" s="35"/>
-    </row>
-    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G191" s="34"/>
+      <c r="H191" s="34"/>
+      <c r="I191" s="34"/>
+      <c r="J191" s="34"/>
+      <c r="K191" s="34"/>
+    </row>
+    <row r="192" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>324</v>
       </c>
@@ -8697,13 +8697,13 @@
         <v>333</v>
       </c>
       <c r="F192" s="22"/>
-      <c r="G192" s="35"/>
-      <c r="H192" s="35"/>
-      <c r="I192" s="35"/>
-      <c r="J192" s="35"/>
-      <c r="K192" s="35"/>
-    </row>
-    <row r="193" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="G192" s="34"/>
+      <c r="H192" s="34"/>
+      <c r="I192" s="34"/>
+      <c r="J192" s="34"/>
+      <c r="K192" s="34"/>
+    </row>
+    <row r="193" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>324</v>
       </c>
@@ -8720,13 +8720,13 @@
         <v>335</v>
       </c>
       <c r="F193" s="22"/>
-      <c r="G193" s="35"/>
-      <c r="H193" s="35"/>
-      <c r="I193" s="35"/>
-      <c r="J193" s="35"/>
-      <c r="K193" s="35"/>
-    </row>
-    <row r="194" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G193" s="34"/>
+      <c r="H193" s="34"/>
+      <c r="I193" s="34"/>
+      <c r="J193" s="34"/>
+      <c r="K193" s="34"/>
+    </row>
+    <row r="194" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>324</v>
       </c>
@@ -8743,13 +8743,13 @@
         <v>337</v>
       </c>
       <c r="F194" s="22"/>
-      <c r="G194" s="35"/>
-      <c r="H194" s="35"/>
-      <c r="I194" s="35"/>
-      <c r="J194" s="35"/>
-      <c r="K194" s="35"/>
-    </row>
-    <row r="195" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G194" s="34"/>
+      <c r="H194" s="34"/>
+      <c r="I194" s="34"/>
+      <c r="J194" s="34"/>
+      <c r="K194" s="34"/>
+    </row>
+    <row r="195" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>324</v>
       </c>
@@ -8766,13 +8766,13 @@
         <v>339</v>
       </c>
       <c r="F195" s="22"/>
-      <c r="G195" s="35"/>
-      <c r="H195" s="35"/>
-      <c r="I195" s="35"/>
-      <c r="J195" s="35"/>
-      <c r="K195" s="35"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G195" s="34"/>
+      <c r="H195" s="34"/>
+      <c r="I195" s="34"/>
+      <c r="J195" s="34"/>
+      <c r="K195" s="34"/>
+    </row>
+    <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>334</v>
       </c>
@@ -8783,13 +8783,13 @@
         <v>340</v>
       </c>
       <c r="F196" s="22"/>
-      <c r="G196" s="35"/>
-      <c r="H196" s="35"/>
-      <c r="I196" s="35"/>
-      <c r="J196" s="35"/>
-      <c r="K196" s="35"/>
-    </row>
-    <row r="197" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
+      <c r="I196" s="34"/>
+      <c r="J196" s="34"/>
+      <c r="K196" s="34"/>
+    </row>
+    <row r="197" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>334</v>
       </c>
@@ -8806,13 +8806,13 @@
         <v>186</v>
       </c>
       <c r="F197" s="22"/>
-      <c r="G197" s="35"/>
-      <c r="H197" s="35"/>
-      <c r="I197" s="35"/>
-      <c r="J197" s="35"/>
-      <c r="K197" s="35"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="34"/>
+      <c r="J197" s="34"/>
+      <c r="K197" s="34"/>
+    </row>
+    <row r="198" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>334</v>
       </c>
@@ -8826,13 +8826,13 @@
         <v>550</v>
       </c>
       <c r="F198" s="22"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="35"/>
-      <c r="I198" s="35"/>
-      <c r="J198" s="35"/>
-      <c r="K198" s="35"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G198" s="34"/>
+      <c r="H198" s="34"/>
+      <c r="I198" s="34"/>
+      <c r="J198" s="34"/>
+      <c r="K198" s="34"/>
+    </row>
+    <row r="199" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>334</v>
       </c>
@@ -8849,13 +8849,13 @@
         <v>343</v>
       </c>
       <c r="F199" s="22"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="35"/>
-      <c r="I199" s="35"/>
-      <c r="J199" s="35"/>
-      <c r="K199" s="35"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G199" s="34"/>
+      <c r="H199" s="34"/>
+      <c r="I199" s="34"/>
+      <c r="J199" s="34"/>
+      <c r="K199" s="34"/>
+    </row>
+    <row r="200" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>344</v>
       </c>
@@ -8863,13 +8863,13 @@
         <v>344</v>
       </c>
       <c r="F200" s="22"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="35"/>
-      <c r="I200" s="35"/>
-      <c r="J200" s="35"/>
-      <c r="K200" s="35"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G200" s="34"/>
+      <c r="H200" s="34"/>
+      <c r="I200" s="34"/>
+      <c r="J200" s="34"/>
+      <c r="K200" s="34"/>
+    </row>
+    <row r="201" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>332</v>
       </c>
@@ -8877,13 +8877,13 @@
         <v>332</v>
       </c>
       <c r="F201" s="22"/>
-      <c r="G201" s="35"/>
-      <c r="H201" s="35"/>
-      <c r="I201" s="35"/>
-      <c r="J201" s="35"/>
-      <c r="K201" s="35"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G201" s="34"/>
+      <c r="H201" s="34"/>
+      <c r="I201" s="34"/>
+      <c r="J201" s="34"/>
+      <c r="K201" s="34"/>
+    </row>
+    <row r="202" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>342</v>
       </c>
@@ -8891,13 +8891,13 @@
         <v>342</v>
       </c>
       <c r="F202" s="22"/>
-      <c r="G202" s="35"/>
-      <c r="H202" s="35"/>
-      <c r="I202" s="35"/>
-      <c r="J202" s="35"/>
-      <c r="K202" s="35"/>
-    </row>
-    <row r="203" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G202" s="34"/>
+      <c r="H202" s="34"/>
+      <c r="I202" s="34"/>
+      <c r="J202" s="34"/>
+      <c r="K202" s="34"/>
+    </row>
+    <row r="203" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>342</v>
       </c>
@@ -8914,13 +8914,13 @@
         <v>346</v>
       </c>
       <c r="F203" s="22"/>
-      <c r="G203" s="35"/>
-      <c r="H203" s="35"/>
-      <c r="I203" s="35"/>
-      <c r="J203" s="35"/>
-      <c r="K203" s="35"/>
-    </row>
-    <row r="204" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G203" s="34"/>
+      <c r="H203" s="34"/>
+      <c r="I203" s="34"/>
+      <c r="J203" s="34"/>
+      <c r="K203" s="34"/>
+    </row>
+    <row r="204" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>342</v>
       </c>
@@ -8937,13 +8937,13 @@
         <v>348</v>
       </c>
       <c r="F204" s="22"/>
-      <c r="G204" s="35"/>
-      <c r="H204" s="35"/>
-      <c r="I204" s="35"/>
-      <c r="J204" s="35"/>
-      <c r="K204" s="35"/>
-    </row>
-    <row r="205" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="G204" s="34"/>
+      <c r="H204" s="34"/>
+      <c r="I204" s="34"/>
+      <c r="J204" s="34"/>
+      <c r="K204" s="34"/>
+    </row>
+    <row r="205" spans="1:11" ht="224" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>349</v>
       </c>
@@ -8953,16 +8953,16 @@
       <c r="E205" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F205" s="40" t="s">
+      <c r="F205" s="39" t="s">
         <v>723</v>
       </c>
-      <c r="G205" s="35"/>
-      <c r="H205" s="35"/>
-      <c r="I205" s="35"/>
-      <c r="J205" s="35"/>
-      <c r="K205" s="35"/>
-    </row>
-    <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G205" s="34"/>
+      <c r="H205" s="34"/>
+      <c r="I205" s="34"/>
+      <c r="J205" s="34"/>
+      <c r="K205" s="34"/>
+    </row>
+    <row r="206" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>134</v>
       </c>
@@ -8973,13 +8973,13 @@
         <v>351</v>
       </c>
       <c r="F206" s="22"/>
-      <c r="G206" s="35"/>
-      <c r="H206" s="35"/>
-      <c r="I206" s="35"/>
-      <c r="J206" s="35"/>
-      <c r="K206" s="35"/>
-    </row>
-    <row r="207" spans="1:11" ht="300" x14ac:dyDescent="0.25">
+      <c r="G206" s="34"/>
+      <c r="H206" s="34"/>
+      <c r="I206" s="34"/>
+      <c r="J206" s="34"/>
+      <c r="K206" s="34"/>
+    </row>
+    <row r="207" spans="1:11" ht="256" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>352</v>
       </c>
@@ -8992,13 +8992,13 @@
       <c r="F207" s="22" t="s">
         <v>724</v>
       </c>
-      <c r="G207" s="35"/>
-      <c r="H207" s="35"/>
-      <c r="I207" s="35"/>
-      <c r="J207" s="35"/>
-      <c r="K207" s="35"/>
-    </row>
-    <row r="208" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G207" s="34"/>
+      <c r="H207" s="34"/>
+      <c r="I207" s="34"/>
+      <c r="J207" s="34"/>
+      <c r="K207" s="34"/>
+    </row>
+    <row r="208" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>352</v>
       </c>
@@ -9015,15 +9015,15 @@
         <v>354</v>
       </c>
       <c r="F208" s="22"/>
-      <c r="G208" s="35" t="s">
+      <c r="G208" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H208" s="35"/>
-      <c r="I208" s="35"/>
-      <c r="J208" s="35"/>
-      <c r="K208" s="35"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H208" s="34"/>
+      <c r="I208" s="34"/>
+      <c r="J208" s="34"/>
+      <c r="K208" s="34"/>
+    </row>
+    <row r="209" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>352</v>
       </c>
@@ -9040,15 +9040,15 @@
         <v>254</v>
       </c>
       <c r="F209" s="22"/>
-      <c r="G209" s="35" t="s">
+      <c r="G209" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H209" s="35"/>
-      <c r="I209" s="35"/>
-      <c r="J209" s="35"/>
-      <c r="K209" s="35"/>
-    </row>
-    <row r="210" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H209" s="34"/>
+      <c r="I209" s="34"/>
+      <c r="J209" s="34"/>
+      <c r="K209" s="34"/>
+    </row>
+    <row r="210" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>352</v>
       </c>
@@ -9065,15 +9065,15 @@
         <v>355</v>
       </c>
       <c r="F210" s="22"/>
-      <c r="G210" s="35" t="s">
+      <c r="G210" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H210" s="35"/>
-      <c r="I210" s="35"/>
-      <c r="J210" s="35"/>
-      <c r="K210" s="35"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H210" s="34"/>
+      <c r="I210" s="34"/>
+      <c r="J210" s="34"/>
+      <c r="K210" s="34"/>
+    </row>
+    <row r="211" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>352</v>
       </c>
@@ -9090,15 +9090,15 @@
         <v>356</v>
       </c>
       <c r="F211" s="22"/>
-      <c r="G211" s="35" t="s">
+      <c r="G211" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H211" s="35"/>
-      <c r="I211" s="35"/>
-      <c r="J211" s="35"/>
-      <c r="K211" s="35"/>
-    </row>
-    <row r="212" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="H211" s="34"/>
+      <c r="I211" s="34"/>
+      <c r="J211" s="34"/>
+      <c r="K211" s="34"/>
+    </row>
+    <row r="212" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>352</v>
       </c>
@@ -9115,15 +9115,15 @@
         <v>358</v>
       </c>
       <c r="F212" s="22"/>
-      <c r="G212" s="35" t="s">
+      <c r="G212" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H212" s="35"/>
-      <c r="I212" s="35"/>
-      <c r="J212" s="35"/>
-      <c r="K212" s="35"/>
-    </row>
-    <row r="213" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="H212" s="34"/>
+      <c r="I212" s="34"/>
+      <c r="J212" s="34"/>
+      <c r="K212" s="34"/>
+    </row>
+    <row r="213" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>352</v>
       </c>
@@ -9140,15 +9140,15 @@
         <v>360</v>
       </c>
       <c r="F213" s="22"/>
-      <c r="G213" s="35" t="s">
+      <c r="G213" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H213" s="35"/>
-      <c r="I213" s="35"/>
-      <c r="J213" s="35"/>
-      <c r="K213" s="35"/>
-    </row>
-    <row r="214" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="H213" s="34"/>
+      <c r="I213" s="34"/>
+      <c r="J213" s="34"/>
+      <c r="K213" s="34"/>
+    </row>
+    <row r="214" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>352</v>
       </c>
@@ -9165,15 +9165,15 @@
         <v>150</v>
       </c>
       <c r="F214" s="22"/>
-      <c r="G214" s="35" t="s">
+      <c r="G214" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="H214" s="35"/>
-      <c r="I214" s="35"/>
-      <c r="J214" s="35"/>
-      <c r="K214" s="35"/>
-    </row>
-    <row r="215" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="H214" s="34"/>
+      <c r="I214" s="34"/>
+      <c r="J214" s="34"/>
+      <c r="K214" s="34"/>
+    </row>
+    <row r="215" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>361</v>
       </c>
@@ -9186,13 +9186,13 @@
       <c r="F215" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="G215" s="35"/>
-      <c r="H215" s="35"/>
-      <c r="I215" s="35"/>
-      <c r="J215" s="35"/>
-      <c r="K215" s="35"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G215" s="34"/>
+      <c r="H215" s="34"/>
+      <c r="I215" s="34"/>
+      <c r="J215" s="34"/>
+      <c r="K215" s="34"/>
+    </row>
+    <row r="216" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>361</v>
       </c>
@@ -9209,13 +9209,13 @@
         <v>363</v>
       </c>
       <c r="F216" s="22"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="35"/>
-      <c r="I216" s="35"/>
-      <c r="J216" s="35"/>
-      <c r="K216" s="35"/>
-    </row>
-    <row r="217" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
+      <c r="I216" s="34"/>
+      <c r="J216" s="34"/>
+      <c r="K216" s="34"/>
+    </row>
+    <row r="217" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>361</v>
       </c>
@@ -9232,13 +9232,13 @@
         <v>365</v>
       </c>
       <c r="F217" s="22"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="35"/>
-      <c r="I217" s="35"/>
-      <c r="J217" s="35"/>
-      <c r="K217" s="35"/>
-    </row>
-    <row r="218" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G217" s="34"/>
+      <c r="H217" s="34"/>
+      <c r="I217" s="34"/>
+      <c r="J217" s="34"/>
+      <c r="K217" s="34"/>
+    </row>
+    <row r="218" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>361</v>
       </c>
@@ -9255,13 +9255,13 @@
         <v>368</v>
       </c>
       <c r="F218" s="22"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="35"/>
-      <c r="J218" s="35"/>
-      <c r="K218" s="35"/>
-    </row>
-    <row r="219" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G218" s="34"/>
+      <c r="H218" s="34"/>
+      <c r="I218" s="34"/>
+      <c r="J218" s="34"/>
+      <c r="K218" s="34"/>
+    </row>
+    <row r="219" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>361</v>
       </c>
@@ -9278,13 +9278,13 @@
         <v>369</v>
       </c>
       <c r="F219" s="22"/>
-      <c r="G219" s="35"/>
-      <c r="H219" s="35"/>
-      <c r="I219" s="35"/>
-      <c r="J219" s="35"/>
-      <c r="K219" s="35"/>
-    </row>
-    <row r="220" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G219" s="34"/>
+      <c r="H219" s="34"/>
+      <c r="I219" s="34"/>
+      <c r="J219" s="34"/>
+      <c r="K219" s="34"/>
+    </row>
+    <row r="220" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>361</v>
       </c>
@@ -9301,13 +9301,13 @@
         <v>371</v>
       </c>
       <c r="F220" s="22"/>
-      <c r="G220" s="35"/>
-      <c r="H220" s="35"/>
-      <c r="I220" s="35"/>
-      <c r="J220" s="35"/>
-      <c r="K220" s="35"/>
-    </row>
-    <row r="221" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G220" s="34"/>
+      <c r="H220" s="34"/>
+      <c r="I220" s="34"/>
+      <c r="J220" s="34"/>
+      <c r="K220" s="34"/>
+    </row>
+    <row r="221" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>361</v>
       </c>
@@ -9324,13 +9324,13 @@
         <v>374</v>
       </c>
       <c r="F221" s="22"/>
-      <c r="G221" s="35"/>
-      <c r="H221" s="35"/>
-      <c r="I221" s="35"/>
-      <c r="J221" s="35"/>
-      <c r="K221" s="35"/>
-    </row>
-    <row r="222" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G221" s="34"/>
+      <c r="H221" s="34"/>
+      <c r="I221" s="34"/>
+      <c r="J221" s="34"/>
+      <c r="K221" s="34"/>
+    </row>
+    <row r="222" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>361</v>
       </c>
@@ -9347,13 +9347,13 @@
         <v>337</v>
       </c>
       <c r="F222" s="22"/>
-      <c r="G222" s="35"/>
-      <c r="H222" s="35"/>
-      <c r="I222" s="35"/>
-      <c r="J222" s="35"/>
-      <c r="K222" s="35"/>
-    </row>
-    <row r="223" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="G222" s="34"/>
+      <c r="H222" s="34"/>
+      <c r="I222" s="34"/>
+      <c r="J222" s="34"/>
+      <c r="K222" s="34"/>
+    </row>
+    <row r="223" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>361</v>
       </c>
@@ -9370,13 +9370,13 @@
         <v>375</v>
       </c>
       <c r="F223" s="22"/>
-      <c r="G223" s="35"/>
-      <c r="H223" s="35"/>
-      <c r="I223" s="35"/>
-      <c r="J223" s="35"/>
-      <c r="K223" s="35"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G223" s="34"/>
+      <c r="H223" s="34"/>
+      <c r="I223" s="34"/>
+      <c r="J223" s="34"/>
+      <c r="K223" s="34"/>
+    </row>
+    <row r="224" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>373</v>
       </c>
@@ -9387,13 +9387,13 @@
         <v>376</v>
       </c>
       <c r="F224" s="22"/>
-      <c r="G224" s="35"/>
-      <c r="H224" s="35"/>
-      <c r="I224" s="35"/>
-      <c r="J224" s="35"/>
-      <c r="K224" s="35"/>
-    </row>
-    <row r="225" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G224" s="34"/>
+      <c r="H224" s="34"/>
+      <c r="I224" s="34"/>
+      <c r="J224" s="34"/>
+      <c r="K224" s="34"/>
+    </row>
+    <row r="225" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>373</v>
       </c>
@@ -9410,13 +9410,13 @@
         <v>186</v>
       </c>
       <c r="F225" s="22"/>
-      <c r="G225" s="35"/>
-      <c r="H225" s="35"/>
-      <c r="I225" s="35"/>
-      <c r="J225" s="35"/>
-      <c r="K225" s="35"/>
-    </row>
-    <row r="226" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G225" s="34"/>
+      <c r="H225" s="34"/>
+      <c r="I225" s="34"/>
+      <c r="J225" s="34"/>
+      <c r="K225" s="34"/>
+    </row>
+    <row r="226" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>373</v>
       </c>
@@ -9433,13 +9433,13 @@
         <v>379</v>
       </c>
       <c r="F226" s="22"/>
-      <c r="G226" s="35"/>
-      <c r="H226" s="35"/>
-      <c r="I226" s="35"/>
-      <c r="J226" s="35"/>
-      <c r="K226" s="35"/>
-    </row>
-    <row r="227" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G226" s="34"/>
+      <c r="H226" s="34"/>
+      <c r="I226" s="34"/>
+      <c r="J226" s="34"/>
+      <c r="K226" s="34"/>
+    </row>
+    <row r="227" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>373</v>
       </c>
@@ -9456,13 +9456,13 @@
         <v>381</v>
       </c>
       <c r="F227" s="22"/>
-      <c r="G227" s="35"/>
-      <c r="H227" s="35"/>
-      <c r="I227" s="35"/>
-      <c r="J227" s="35"/>
-      <c r="K227" s="35"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G227" s="34"/>
+      <c r="H227" s="34"/>
+      <c r="I227" s="34"/>
+      <c r="J227" s="34"/>
+      <c r="K227" s="34"/>
+    </row>
+    <row r="228" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>370</v>
       </c>
@@ -9473,13 +9473,13 @@
         <v>382</v>
       </c>
       <c r="F228" s="22"/>
-      <c r="G228" s="35"/>
-      <c r="H228" s="35"/>
-      <c r="I228" s="35"/>
-      <c r="J228" s="35"/>
-      <c r="K228" s="35"/>
-    </row>
-    <row r="229" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G228" s="34"/>
+      <c r="H228" s="34"/>
+      <c r="I228" s="34"/>
+      <c r="J228" s="34"/>
+      <c r="K228" s="34"/>
+    </row>
+    <row r="229" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>370</v>
       </c>
@@ -9496,13 +9496,13 @@
         <v>186</v>
       </c>
       <c r="F229" s="22"/>
-      <c r="G229" s="35"/>
-      <c r="H229" s="35"/>
-      <c r="I229" s="35"/>
-      <c r="J229" s="35"/>
-      <c r="K229" s="35"/>
-    </row>
-    <row r="230" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G229" s="34"/>
+      <c r="H229" s="34"/>
+      <c r="I229" s="34"/>
+      <c r="J229" s="34"/>
+      <c r="K229" s="34"/>
+    </row>
+    <row r="230" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>370</v>
       </c>
@@ -9519,13 +9519,13 @@
         <v>379</v>
       </c>
       <c r="F230" s="22"/>
-      <c r="G230" s="35"/>
-      <c r="H230" s="35"/>
-      <c r="I230" s="35"/>
-      <c r="J230" s="35"/>
-      <c r="K230" s="35"/>
-    </row>
-    <row r="231" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G230" s="34"/>
+      <c r="H230" s="34"/>
+      <c r="I230" s="34"/>
+      <c r="J230" s="34"/>
+      <c r="K230" s="34"/>
+    </row>
+    <row r="231" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>370</v>
       </c>
@@ -9542,13 +9542,13 @@
         <v>384</v>
       </c>
       <c r="F231" s="22"/>
-      <c r="G231" s="35"/>
-      <c r="H231" s="35"/>
-      <c r="I231" s="35"/>
-      <c r="J231" s="35"/>
-      <c r="K231" s="35"/>
-    </row>
-    <row r="232" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G231" s="34"/>
+      <c r="H231" s="34"/>
+      <c r="I231" s="34"/>
+      <c r="J231" s="34"/>
+      <c r="K231" s="34"/>
+    </row>
+    <row r="232" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>370</v>
       </c>
@@ -9565,13 +9565,13 @@
         <v>387</v>
       </c>
       <c r="F232" s="22"/>
-      <c r="G232" s="35"/>
-      <c r="H232" s="35"/>
-      <c r="I232" s="35"/>
-      <c r="J232" s="35"/>
-      <c r="K232" s="35"/>
-    </row>
-    <row r="233" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G232" s="34"/>
+      <c r="H232" s="34"/>
+      <c r="I232" s="34"/>
+      <c r="J232" s="34"/>
+      <c r="K232" s="34"/>
+    </row>
+    <row r="233" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>370</v>
       </c>
@@ -9588,13 +9588,13 @@
         <v>389</v>
       </c>
       <c r="F233" s="22"/>
-      <c r="G233" s="35"/>
-      <c r="H233" s="35"/>
-      <c r="I233" s="35"/>
-      <c r="J233" s="35"/>
-      <c r="K233" s="35"/>
-    </row>
-    <row r="234" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G233" s="34"/>
+      <c r="H233" s="34"/>
+      <c r="I233" s="34"/>
+      <c r="J233" s="34"/>
+      <c r="K233" s="34"/>
+    </row>
+    <row r="234" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>370</v>
       </c>
@@ -9611,13 +9611,13 @@
         <v>391</v>
       </c>
       <c r="F234" s="22"/>
-      <c r="G234" s="35"/>
-      <c r="H234" s="35"/>
-      <c r="I234" s="35"/>
-      <c r="J234" s="35"/>
-      <c r="K234" s="35"/>
-    </row>
-    <row r="235" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G234" s="34"/>
+      <c r="H234" s="34"/>
+      <c r="I234" s="34"/>
+      <c r="J234" s="34"/>
+      <c r="K234" s="34"/>
+    </row>
+    <row r="235" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>370</v>
       </c>
@@ -9634,13 +9634,13 @@
         <v>393</v>
       </c>
       <c r="F235" s="22"/>
-      <c r="G235" s="35"/>
-      <c r="H235" s="35"/>
-      <c r="I235" s="35"/>
-      <c r="J235" s="35"/>
-      <c r="K235" s="35"/>
-    </row>
-    <row r="236" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G235" s="34"/>
+      <c r="H235" s="34"/>
+      <c r="I235" s="34"/>
+      <c r="J235" s="34"/>
+      <c r="K235" s="34"/>
+    </row>
+    <row r="236" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>370</v>
       </c>
@@ -9657,13 +9657,13 @@
         <v>381</v>
       </c>
       <c r="F236" s="22"/>
-      <c r="G236" s="35"/>
-      <c r="H236" s="35"/>
-      <c r="I236" s="35"/>
-      <c r="J236" s="35"/>
-      <c r="K236" s="35"/>
-    </row>
-    <row r="237" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G236" s="34"/>
+      <c r="H236" s="34"/>
+      <c r="I236" s="34"/>
+      <c r="J236" s="34"/>
+      <c r="K236" s="34"/>
+    </row>
+    <row r="237" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>394</v>
       </c>
@@ -9674,13 +9674,13 @@
         <v>395</v>
       </c>
       <c r="F237" s="22"/>
-      <c r="G237" s="35"/>
-      <c r="H237" s="35"/>
-      <c r="I237" s="35"/>
-      <c r="J237" s="35"/>
-      <c r="K237" s="35"/>
-    </row>
-    <row r="238" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G237" s="34"/>
+      <c r="H237" s="34"/>
+      <c r="I237" s="34"/>
+      <c r="J237" s="34"/>
+      <c r="K237" s="34"/>
+    </row>
+    <row r="238" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>394</v>
       </c>
@@ -9697,13 +9697,13 @@
         <v>397</v>
       </c>
       <c r="F238" s="22"/>
-      <c r="G238" s="35"/>
-      <c r="H238" s="35"/>
-      <c r="I238" s="35"/>
-      <c r="J238" s="35"/>
-      <c r="K238" s="35"/>
-    </row>
-    <row r="239" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G238" s="34"/>
+      <c r="H238" s="34"/>
+      <c r="I238" s="34"/>
+      <c r="J238" s="34"/>
+      <c r="K238" s="34"/>
+    </row>
+    <row r="239" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>398</v>
       </c>
@@ -9714,13 +9714,13 @@
         <v>399</v>
       </c>
       <c r="F239" s="22"/>
-      <c r="G239" s="35"/>
-      <c r="H239" s="35"/>
-      <c r="I239" s="35"/>
-      <c r="J239" s="35"/>
-      <c r="K239" s="35"/>
-    </row>
-    <row r="240" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G239" s="34"/>
+      <c r="H239" s="34"/>
+      <c r="I239" s="34"/>
+      <c r="J239" s="34"/>
+      <c r="K239" s="34"/>
+    </row>
+    <row r="240" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>398</v>
       </c>
@@ -9737,13 +9737,13 @@
         <v>400</v>
       </c>
       <c r="F240" s="22"/>
-      <c r="G240" s="35"/>
-      <c r="H240" s="35"/>
-      <c r="I240" s="35"/>
-      <c r="J240" s="35"/>
-      <c r="K240" s="35"/>
-    </row>
-    <row r="241" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G240" s="34"/>
+      <c r="H240" s="34"/>
+      <c r="I240" s="34"/>
+      <c r="J240" s="34"/>
+      <c r="K240" s="34"/>
+    </row>
+    <row r="241" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>398</v>
       </c>
@@ -9760,13 +9760,13 @@
         <v>402</v>
       </c>
       <c r="F241" s="22"/>
-      <c r="G241" s="35"/>
-      <c r="H241" s="35"/>
-      <c r="I241" s="35"/>
-      <c r="J241" s="35"/>
-      <c r="K241" s="35"/>
-    </row>
-    <row r="242" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G241" s="34"/>
+      <c r="H241" s="34"/>
+      <c r="I241" s="34"/>
+      <c r="J241" s="34"/>
+      <c r="K241" s="34"/>
+    </row>
+    <row r="242" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>403</v>
       </c>
@@ -9777,13 +9777,13 @@
         <v>404</v>
       </c>
       <c r="F242" s="22"/>
-      <c r="G242" s="35"/>
-      <c r="H242" s="35"/>
-      <c r="I242" s="35"/>
-      <c r="J242" s="35"/>
-      <c r="K242" s="35"/>
-    </row>
-    <row r="243" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G242" s="34"/>
+      <c r="H242" s="34"/>
+      <c r="I242" s="34"/>
+      <c r="J242" s="34"/>
+      <c r="K242" s="34"/>
+    </row>
+    <row r="243" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>403</v>
       </c>
@@ -9800,13 +9800,13 @@
         <v>400</v>
       </c>
       <c r="F243" s="22"/>
-      <c r="G243" s="35"/>
-      <c r="H243" s="35"/>
-      <c r="I243" s="35"/>
-      <c r="J243" s="35"/>
-      <c r="K243" s="35"/>
-    </row>
-    <row r="244" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G243" s="34"/>
+      <c r="H243" s="34"/>
+      <c r="I243" s="34"/>
+      <c r="J243" s="34"/>
+      <c r="K243" s="34"/>
+    </row>
+    <row r="244" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>403</v>
       </c>
@@ -9823,13 +9823,13 @@
         <v>402</v>
       </c>
       <c r="F244" s="22"/>
-      <c r="G244" s="35"/>
-      <c r="H244" s="35"/>
-      <c r="I244" s="35"/>
-      <c r="J244" s="35"/>
-      <c r="K244" s="35"/>
-    </row>
-    <row r="245" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G244" s="34"/>
+      <c r="H244" s="34"/>
+      <c r="I244" s="34"/>
+      <c r="J244" s="34"/>
+      <c r="K244" s="34"/>
+    </row>
+    <row r="245" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>88</v>
       </c>
@@ -9840,13 +9840,13 @@
         <v>405</v>
       </c>
       <c r="F245" s="22"/>
-      <c r="G245" s="35"/>
-      <c r="H245" s="35"/>
-      <c r="I245" s="35"/>
-      <c r="J245" s="35"/>
-      <c r="K245" s="35"/>
-    </row>
-    <row r="246" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G245" s="34"/>
+      <c r="H245" s="34"/>
+      <c r="I245" s="34"/>
+      <c r="J245" s="34"/>
+      <c r="K245" s="34"/>
+    </row>
+    <row r="246" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>406</v>
       </c>
@@ -9859,13 +9859,13 @@
       <c r="F246" s="22" t="s">
         <v>726</v>
       </c>
-      <c r="G246" s="35"/>
-      <c r="H246" s="35"/>
-      <c r="I246" s="35"/>
-      <c r="J246" s="35"/>
-      <c r="K246" s="35"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G246" s="34"/>
+      <c r="H246" s="34"/>
+      <c r="I246" s="34"/>
+      <c r="J246" s="34"/>
+      <c r="K246" s="34"/>
+    </row>
+    <row r="247" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>406</v>
       </c>
@@ -9882,13 +9882,13 @@
         <v>124</v>
       </c>
       <c r="F247" s="22"/>
-      <c r="G247" s="35"/>
-      <c r="H247" s="35"/>
-      <c r="I247" s="35"/>
-      <c r="J247" s="35"/>
-      <c r="K247" s="35"/>
-    </row>
-    <row r="248" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G247" s="34"/>
+      <c r="H247" s="34"/>
+      <c r="I247" s="34"/>
+      <c r="J247" s="34"/>
+      <c r="K247" s="34"/>
+    </row>
+    <row r="248" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>406</v>
       </c>
@@ -9905,13 +9905,13 @@
         <v>409</v>
       </c>
       <c r="F248" s="22"/>
-      <c r="G248" s="35"/>
-      <c r="H248" s="35"/>
-      <c r="I248" s="35"/>
-      <c r="J248" s="35"/>
-      <c r="K248" s="35"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G248" s="34"/>
+      <c r="H248" s="34"/>
+      <c r="I248" s="34"/>
+      <c r="J248" s="34"/>
+      <c r="K248" s="34"/>
+    </row>
+    <row r="249" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>406</v>
       </c>
@@ -9928,13 +9928,13 @@
         <v>412</v>
       </c>
       <c r="F249" s="22"/>
-      <c r="G249" s="35"/>
-      <c r="H249" s="35"/>
-      <c r="I249" s="35"/>
-      <c r="J249" s="35"/>
-      <c r="K249" s="35"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G249" s="34"/>
+      <c r="H249" s="34"/>
+      <c r="I249" s="34"/>
+      <c r="J249" s="34"/>
+      <c r="K249" s="34"/>
+    </row>
+    <row r="250" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>406</v>
       </c>
@@ -9951,13 +9951,13 @@
         <v>414</v>
       </c>
       <c r="F250" s="22"/>
-      <c r="G250" s="35"/>
-      <c r="H250" s="35"/>
-      <c r="I250" s="35"/>
-      <c r="J250" s="35"/>
-      <c r="K250" s="35"/>
-    </row>
-    <row r="251" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
+      <c r="I250" s="34"/>
+      <c r="J250" s="34"/>
+      <c r="K250" s="34"/>
+    </row>
+    <row r="251" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>406</v>
       </c>
@@ -9974,13 +9974,13 @@
         <v>416</v>
       </c>
       <c r="F251" s="22"/>
-      <c r="G251" s="35"/>
-      <c r="H251" s="35"/>
-      <c r="I251" s="35"/>
-      <c r="J251" s="35"/>
-      <c r="K251" s="35"/>
-    </row>
-    <row r="252" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+      <c r="I251" s="34"/>
+      <c r="J251" s="34"/>
+      <c r="K251" s="34"/>
+    </row>
+    <row r="252" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>406</v>
       </c>
@@ -9997,13 +9997,13 @@
         <v>417</v>
       </c>
       <c r="F252" s="22"/>
-      <c r="G252" s="35"/>
-      <c r="H252" s="35"/>
-      <c r="I252" s="35"/>
-      <c r="J252" s="35"/>
-      <c r="K252" s="35"/>
-    </row>
-    <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
+      <c r="I252" s="34"/>
+      <c r="J252" s="34"/>
+      <c r="K252" s="34"/>
+    </row>
+    <row r="253" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>406</v>
       </c>
@@ -10020,13 +10020,13 @@
         <v>419</v>
       </c>
       <c r="F253" s="22"/>
-      <c r="G253" s="35"/>
-      <c r="H253" s="35"/>
-      <c r="I253" s="35"/>
-      <c r="J253" s="35"/>
-      <c r="K253" s="35"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G253" s="34"/>
+      <c r="H253" s="34"/>
+      <c r="I253" s="34"/>
+      <c r="J253" s="34"/>
+      <c r="K253" s="34"/>
+    </row>
+    <row r="254" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>406</v>
       </c>
@@ -10043,13 +10043,13 @@
         <v>421</v>
       </c>
       <c r="F254" s="22"/>
-      <c r="G254" s="35"/>
-      <c r="H254" s="35"/>
-      <c r="I254" s="35"/>
-      <c r="J254" s="35"/>
-      <c r="K254" s="35"/>
-    </row>
-    <row r="255" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G254" s="34"/>
+      <c r="H254" s="34"/>
+      <c r="I254" s="34"/>
+      <c r="J254" s="34"/>
+      <c r="K254" s="34"/>
+    </row>
+    <row r="255" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>406</v>
       </c>
@@ -10066,13 +10066,13 @@
         <v>423</v>
       </c>
       <c r="F255" s="22"/>
-      <c r="G255" s="35"/>
-      <c r="H255" s="35"/>
-      <c r="I255" s="35"/>
-      <c r="J255" s="35"/>
-      <c r="K255" s="35"/>
-    </row>
-    <row r="256" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G255" s="34"/>
+      <c r="H255" s="34"/>
+      <c r="I255" s="34"/>
+      <c r="J255" s="34"/>
+      <c r="K255" s="34"/>
+    </row>
+    <row r="256" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>406</v>
       </c>
@@ -10089,13 +10089,13 @@
         <v>425</v>
       </c>
       <c r="F256" s="22"/>
-      <c r="G256" s="35"/>
-      <c r="H256" s="35"/>
-      <c r="I256" s="35"/>
-      <c r="J256" s="35"/>
-      <c r="K256" s="35"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G256" s="34"/>
+      <c r="H256" s="34"/>
+      <c r="I256" s="34"/>
+      <c r="J256" s="34"/>
+      <c r="K256" s="34"/>
+    </row>
+    <row r="257" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>406</v>
       </c>
@@ -10112,13 +10112,13 @@
         <v>427</v>
       </c>
       <c r="F257" s="22"/>
-      <c r="G257" s="35"/>
-      <c r="H257" s="35"/>
-      <c r="I257" s="35"/>
-      <c r="J257" s="35"/>
-      <c r="K257" s="35"/>
-    </row>
-    <row r="258" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G257" s="34"/>
+      <c r="H257" s="34"/>
+      <c r="I257" s="34"/>
+      <c r="J257" s="34"/>
+      <c r="K257" s="34"/>
+    </row>
+    <row r="258" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>406</v>
       </c>
@@ -10135,13 +10135,13 @@
         <v>337</v>
       </c>
       <c r="F258" s="22"/>
-      <c r="G258" s="35"/>
-      <c r="H258" s="35"/>
-      <c r="I258" s="35"/>
-      <c r="J258" s="35"/>
-      <c r="K258" s="35"/>
-    </row>
-    <row r="259" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G258" s="34"/>
+      <c r="H258" s="34"/>
+      <c r="I258" s="34"/>
+      <c r="J258" s="34"/>
+      <c r="K258" s="34"/>
+    </row>
+    <row r="259" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>406</v>
       </c>
@@ -10158,13 +10158,13 @@
         <v>339</v>
       </c>
       <c r="F259" s="22"/>
-      <c r="G259" s="35"/>
-      <c r="H259" s="35"/>
-      <c r="I259" s="35"/>
-      <c r="J259" s="35"/>
-      <c r="K259" s="35"/>
-    </row>
-    <row r="260" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G259" s="34"/>
+      <c r="H259" s="34"/>
+      <c r="I259" s="34"/>
+      <c r="J259" s="34"/>
+      <c r="K259" s="34"/>
+    </row>
+    <row r="260" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>428</v>
       </c>
@@ -10175,13 +10175,13 @@
         <v>429</v>
       </c>
       <c r="F260" s="22"/>
-      <c r="G260" s="35"/>
-      <c r="H260" s="35"/>
-      <c r="I260" s="35"/>
-      <c r="J260" s="35"/>
-      <c r="K260" s="35"/>
-    </row>
-    <row r="261" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G260" s="34"/>
+      <c r="H260" s="34"/>
+      <c r="I260" s="34"/>
+      <c r="J260" s="34"/>
+      <c r="K260" s="34"/>
+    </row>
+    <row r="261" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>428</v>
       </c>
@@ -10198,13 +10198,13 @@
         <v>431</v>
       </c>
       <c r="F261" s="22"/>
-      <c r="G261" s="35"/>
-      <c r="H261" s="35"/>
-      <c r="I261" s="35"/>
-      <c r="J261" s="35"/>
-      <c r="K261" s="35"/>
-    </row>
-    <row r="262" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G261" s="34"/>
+      <c r="H261" s="34"/>
+      <c r="I261" s="34"/>
+      <c r="J261" s="34"/>
+      <c r="K261" s="34"/>
+    </row>
+    <row r="262" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>432</v>
       </c>
@@ -10215,13 +10215,13 @@
         <v>433</v>
       </c>
       <c r="F262" s="22"/>
-      <c r="G262" s="35"/>
-      <c r="H262" s="35"/>
-      <c r="I262" s="35"/>
-      <c r="J262" s="35"/>
-      <c r="K262" s="35"/>
-    </row>
-    <row r="263" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G262" s="34"/>
+      <c r="H262" s="34"/>
+      <c r="I262" s="34"/>
+      <c r="J262" s="34"/>
+      <c r="K262" s="34"/>
+    </row>
+    <row r="263" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>432</v>
       </c>
@@ -10238,13 +10238,13 @@
         <v>431</v>
       </c>
       <c r="F263" s="22"/>
-      <c r="G263" s="35"/>
-      <c r="H263" s="35"/>
-      <c r="I263" s="35"/>
-      <c r="J263" s="35"/>
-      <c r="K263" s="35"/>
-    </row>
-    <row r="264" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G263" s="34"/>
+      <c r="H263" s="34"/>
+      <c r="I263" s="34"/>
+      <c r="J263" s="34"/>
+      <c r="K263" s="34"/>
+    </row>
+    <row r="264" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>432</v>
       </c>
@@ -10261,13 +10261,13 @@
         <v>434</v>
       </c>
       <c r="F264" s="22"/>
-      <c r="G264" s="35"/>
-      <c r="H264" s="35"/>
-      <c r="I264" s="35"/>
-      <c r="J264" s="35"/>
-      <c r="K264" s="35"/>
-    </row>
-    <row r="265" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G264" s="34"/>
+      <c r="H264" s="34"/>
+      <c r="I264" s="34"/>
+      <c r="J264" s="34"/>
+      <c r="K264" s="34"/>
+    </row>
+    <row r="265" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>432</v>
       </c>
@@ -10284,13 +10284,13 @@
         <v>435</v>
       </c>
       <c r="F265" s="22"/>
-      <c r="G265" s="35"/>
-      <c r="H265" s="35"/>
-      <c r="I265" s="35"/>
-      <c r="J265" s="35"/>
-      <c r="K265" s="35"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G265" s="34"/>
+      <c r="H265" s="34"/>
+      <c r="I265" s="34"/>
+      <c r="J265" s="34"/>
+      <c r="K265" s="34"/>
+    </row>
+    <row r="266" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>426</v>
       </c>
@@ -10301,13 +10301,13 @@
         <v>436</v>
       </c>
       <c r="F266" s="22"/>
-      <c r="G266" s="35"/>
-      <c r="H266" s="35"/>
-      <c r="I266" s="35"/>
-      <c r="J266" s="35"/>
-      <c r="K266" s="35"/>
-    </row>
-    <row r="267" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G266" s="34"/>
+      <c r="H266" s="34"/>
+      <c r="I266" s="34"/>
+      <c r="J266" s="34"/>
+      <c r="K266" s="34"/>
+    </row>
+    <row r="267" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>426</v>
       </c>
@@ -10324,13 +10324,13 @@
         <v>437</v>
       </c>
       <c r="F267" s="22"/>
-      <c r="G267" s="35"/>
-      <c r="H267" s="35"/>
-      <c r="I267" s="35"/>
-      <c r="J267" s="35"/>
-      <c r="K267" s="35"/>
-    </row>
-    <row r="268" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G267" s="34"/>
+      <c r="H267" s="34"/>
+      <c r="I267" s="34"/>
+      <c r="J267" s="34"/>
+      <c r="K267" s="34"/>
+    </row>
+    <row r="268" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>426</v>
       </c>
@@ -10347,13 +10347,13 @@
         <v>440</v>
       </c>
       <c r="F268" s="22"/>
-      <c r="G268" s="35"/>
-      <c r="H268" s="35"/>
-      <c r="I268" s="35"/>
-      <c r="J268" s="35"/>
-      <c r="K268" s="35"/>
-    </row>
-    <row r="269" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G268" s="34"/>
+      <c r="H268" s="34"/>
+      <c r="I268" s="34"/>
+      <c r="J268" s="34"/>
+      <c r="K268" s="34"/>
+    </row>
+    <row r="269" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>426</v>
       </c>
@@ -10370,13 +10370,13 @@
         <v>442</v>
       </c>
       <c r="F269" s="22"/>
-      <c r="G269" s="35"/>
-      <c r="H269" s="35"/>
-      <c r="I269" s="35"/>
-      <c r="J269" s="35"/>
-      <c r="K269" s="35"/>
-    </row>
-    <row r="270" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G269" s="34"/>
+      <c r="H269" s="34"/>
+      <c r="I269" s="34"/>
+      <c r="J269" s="34"/>
+      <c r="K269" s="34"/>
+    </row>
+    <row r="270" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>424</v>
       </c>
@@ -10387,13 +10387,13 @@
         <v>443</v>
       </c>
       <c r="F270" s="22"/>
-      <c r="G270" s="35"/>
-      <c r="H270" s="35"/>
-      <c r="I270" s="35"/>
-      <c r="J270" s="35"/>
-      <c r="K270" s="35"/>
-    </row>
-    <row r="271" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G270" s="34"/>
+      <c r="H270" s="34"/>
+      <c r="I270" s="34"/>
+      <c r="J270" s="34"/>
+      <c r="K270" s="34"/>
+    </row>
+    <row r="271" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>424</v>
       </c>
@@ -10410,13 +10410,13 @@
         <v>444</v>
       </c>
       <c r="F271" s="22"/>
-      <c r="G271" s="35"/>
-      <c r="H271" s="35"/>
-      <c r="I271" s="35"/>
-      <c r="J271" s="35"/>
-      <c r="K271" s="35"/>
-    </row>
-    <row r="272" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G271" s="34"/>
+      <c r="H271" s="34"/>
+      <c r="I271" s="34"/>
+      <c r="J271" s="34"/>
+      <c r="K271" s="34"/>
+    </row>
+    <row r="272" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>424</v>
       </c>
@@ -10433,13 +10433,13 @@
         <v>446</v>
       </c>
       <c r="F272" s="22"/>
-      <c r="G272" s="35"/>
-      <c r="H272" s="35"/>
-      <c r="I272" s="35"/>
-      <c r="J272" s="35"/>
-      <c r="K272" s="35"/>
-    </row>
-    <row r="273" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G272" s="34"/>
+      <c r="H272" s="34"/>
+      <c r="I272" s="34"/>
+      <c r="J272" s="34"/>
+      <c r="K272" s="34"/>
+    </row>
+    <row r="273" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>424</v>
       </c>
@@ -10456,13 +10456,13 @@
         <v>448</v>
       </c>
       <c r="F273" s="22"/>
-      <c r="G273" s="35"/>
-      <c r="H273" s="35"/>
-      <c r="I273" s="35"/>
-      <c r="J273" s="35"/>
-      <c r="K273" s="35"/>
-    </row>
-    <row r="274" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G273" s="34"/>
+      <c r="H273" s="34"/>
+      <c r="I273" s="34"/>
+      <c r="J273" s="34"/>
+      <c r="K273" s="34"/>
+    </row>
+    <row r="274" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>424</v>
       </c>
@@ -10479,13 +10479,13 @@
         <v>451</v>
       </c>
       <c r="F274" s="22"/>
-      <c r="G274" s="35"/>
-      <c r="H274" s="35"/>
-      <c r="I274" s="35"/>
-      <c r="J274" s="35"/>
-      <c r="K274" s="35"/>
-    </row>
-    <row r="275" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G274" s="34"/>
+      <c r="H274" s="34"/>
+      <c r="I274" s="34"/>
+      <c r="J274" s="34"/>
+      <c r="K274" s="34"/>
+    </row>
+    <row r="275" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>424</v>
       </c>
@@ -10502,13 +10502,13 @@
         <v>442</v>
       </c>
       <c r="F275" s="22"/>
-      <c r="G275" s="35"/>
-      <c r="H275" s="35"/>
-      <c r="I275" s="35"/>
-      <c r="J275" s="35"/>
-      <c r="K275" s="35"/>
-    </row>
-    <row r="276" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G275" s="34"/>
+      <c r="H275" s="34"/>
+      <c r="I275" s="34"/>
+      <c r="J275" s="34"/>
+      <c r="K275" s="34"/>
+    </row>
+    <row r="276" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>452</v>
       </c>
@@ -10519,13 +10519,13 @@
         <v>453</v>
       </c>
       <c r="F276" s="22"/>
-      <c r="G276" s="35"/>
-      <c r="H276" s="35"/>
-      <c r="I276" s="35"/>
-      <c r="J276" s="35"/>
-      <c r="K276" s="35"/>
-    </row>
-    <row r="277" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G276" s="34"/>
+      <c r="H276" s="34"/>
+      <c r="I276" s="34"/>
+      <c r="J276" s="34"/>
+      <c r="K276" s="34"/>
+    </row>
+    <row r="277" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>452</v>
       </c>
@@ -10542,13 +10542,13 @@
         <v>456</v>
       </c>
       <c r="F277" s="22"/>
-      <c r="G277" s="35"/>
-      <c r="H277" s="35"/>
-      <c r="I277" s="35"/>
-      <c r="J277" s="35"/>
-      <c r="K277" s="35"/>
-    </row>
-    <row r="278" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G277" s="34"/>
+      <c r="H277" s="34"/>
+      <c r="I277" s="34"/>
+      <c r="J277" s="34"/>
+      <c r="K277" s="34"/>
+    </row>
+    <row r="278" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>452</v>
       </c>
@@ -10565,13 +10565,13 @@
         <v>458</v>
       </c>
       <c r="F278" s="22"/>
-      <c r="G278" s="35"/>
-      <c r="H278" s="35"/>
-      <c r="I278" s="35"/>
-      <c r="J278" s="35"/>
-      <c r="K278" s="35"/>
-    </row>
-    <row r="279" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G278" s="34"/>
+      <c r="H278" s="34"/>
+      <c r="I278" s="34"/>
+      <c r="J278" s="34"/>
+      <c r="K278" s="34"/>
+    </row>
+    <row r="279" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>459</v>
       </c>
@@ -10582,13 +10582,13 @@
         <v>460</v>
       </c>
       <c r="F279" s="22"/>
-      <c r="G279" s="35"/>
-      <c r="H279" s="35"/>
-      <c r="I279" s="35"/>
-      <c r="J279" s="35"/>
-      <c r="K279" s="35"/>
-    </row>
-    <row r="280" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G279" s="34"/>
+      <c r="H279" s="34"/>
+      <c r="I279" s="34"/>
+      <c r="J279" s="34"/>
+      <c r="K279" s="34"/>
+    </row>
+    <row r="280" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>459</v>
       </c>
@@ -10605,13 +10605,13 @@
         <v>462</v>
       </c>
       <c r="F280" s="22"/>
-      <c r="G280" s="35"/>
-      <c r="H280" s="35"/>
-      <c r="I280" s="35"/>
-      <c r="J280" s="35"/>
-      <c r="K280" s="35"/>
-    </row>
-    <row r="281" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G280" s="34"/>
+      <c r="H280" s="34"/>
+      <c r="I280" s="34"/>
+      <c r="J280" s="34"/>
+      <c r="K280" s="34"/>
+    </row>
+    <row r="281" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>463</v>
       </c>
@@ -10622,13 +10622,13 @@
         <v>464</v>
       </c>
       <c r="F281" s="22"/>
-      <c r="G281" s="35"/>
-      <c r="H281" s="35"/>
-      <c r="I281" s="35"/>
-      <c r="J281" s="35"/>
-      <c r="K281" s="35"/>
-    </row>
-    <row r="282" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G281" s="34"/>
+      <c r="H281" s="34"/>
+      <c r="I281" s="34"/>
+      <c r="J281" s="34"/>
+      <c r="K281" s="34"/>
+    </row>
+    <row r="282" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>463</v>
       </c>
@@ -10645,13 +10645,13 @@
         <v>462</v>
       </c>
       <c r="F282" s="22"/>
-      <c r="G282" s="35"/>
-      <c r="H282" s="35"/>
-      <c r="I282" s="35"/>
-      <c r="J282" s="35"/>
-      <c r="K282" s="35"/>
-    </row>
-    <row r="283" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G282" s="34"/>
+      <c r="H282" s="34"/>
+      <c r="I282" s="34"/>
+      <c r="J282" s="34"/>
+      <c r="K282" s="34"/>
+    </row>
+    <row r="283" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>175</v>
       </c>
@@ -10662,13 +10662,13 @@
         <v>465</v>
       </c>
       <c r="F283" s="22"/>
-      <c r="G283" s="35"/>
-      <c r="H283" s="35"/>
-      <c r="I283" s="35"/>
-      <c r="J283" s="35"/>
-      <c r="K283" s="35"/>
-    </row>
-    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G283" s="34"/>
+      <c r="H283" s="34"/>
+      <c r="I283" s="34"/>
+      <c r="J283" s="34"/>
+      <c r="K283" s="34"/>
+    </row>
+    <row r="284" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>450</v>
       </c>
@@ -10679,13 +10679,13 @@
         <v>466</v>
       </c>
       <c r="F284" s="22"/>
-      <c r="G284" s="35"/>
-      <c r="H284" s="35"/>
-      <c r="I284" s="35"/>
-      <c r="J284" s="35"/>
-      <c r="K284" s="35"/>
-    </row>
-    <row r="285" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G284" s="34"/>
+      <c r="H284" s="34"/>
+      <c r="I284" s="34"/>
+      <c r="J284" s="34"/>
+      <c r="K284" s="34"/>
+    </row>
+    <row r="285" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>450</v>
       </c>
@@ -10702,13 +10702,13 @@
         <v>469</v>
       </c>
       <c r="F285" s="22"/>
-      <c r="G285" s="35"/>
-      <c r="H285" s="35"/>
-      <c r="I285" s="35"/>
-      <c r="J285" s="35"/>
-      <c r="K285" s="35"/>
-    </row>
-    <row r="286" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G285" s="34"/>
+      <c r="H285" s="34"/>
+      <c r="I285" s="34"/>
+      <c r="J285" s="34"/>
+      <c r="K285" s="34"/>
+    </row>
+    <row r="286" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>450</v>
       </c>
@@ -10725,13 +10725,13 @@
         <v>471</v>
       </c>
       <c r="F286" s="22"/>
-      <c r="G286" s="35"/>
-      <c r="H286" s="35"/>
-      <c r="I286" s="35"/>
-      <c r="J286" s="35"/>
-      <c r="K286" s="35"/>
-    </row>
-    <row r="287" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G286" s="34"/>
+      <c r="H286" s="34"/>
+      <c r="I286" s="34"/>
+      <c r="J286" s="34"/>
+      <c r="K286" s="34"/>
+    </row>
+    <row r="287" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>450</v>
       </c>
@@ -10748,13 +10748,13 @@
         <v>473</v>
       </c>
       <c r="F287" s="22"/>
-      <c r="G287" s="35"/>
-      <c r="H287" s="35"/>
-      <c r="I287" s="35"/>
-      <c r="J287" s="35"/>
-      <c r="K287" s="35"/>
-    </row>
-    <row r="288" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G287" s="34"/>
+      <c r="H287" s="34"/>
+      <c r="I287" s="34"/>
+      <c r="J287" s="34"/>
+      <c r="K287" s="34"/>
+    </row>
+    <row r="288" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>450</v>
       </c>
@@ -10771,11 +10771,11 @@
         <v>474</v>
       </c>
       <c r="F288" s="22"/>
-      <c r="G288" s="35"/>
-      <c r="H288" s="35"/>
-      <c r="I288" s="35"/>
-      <c r="J288" s="35"/>
-      <c r="K288" s="35"/>
+      <c r="G288" s="34"/>
+      <c r="H288" s="34"/>
+      <c r="I288" s="34"/>
+      <c r="J288" s="34"/>
+      <c r="K288" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K288" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -10799,17 +10799,17 @@
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>475</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="224" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>216</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>161</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>314</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>314</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>314</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>268</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>268</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>275</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>275</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>275</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>278</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>278</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>278</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>272</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>272</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>272</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>272</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>188</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>188</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>265</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>265</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>265</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>265</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>265</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>386</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>386</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>386</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="224" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>439</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>439</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>439</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>439</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>439</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>447</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>447</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>447</v>
       </c>
